--- a/Reports/EnvEveLog.xlsx
+++ b/Reports/EnvEveLog.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X27"/>
+  <dimension ref="A1:X52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -634,72 +634,72 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>164.3720347138698</v>
+        <v>164.3916350522279</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1189155499117497</v>
+        <v>0.05742194615381563</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>22 Jun 2025 10:15:21.000000000</t>
+          <t>22 Jun 2025 10:15:20.000000000</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>-3.687541162303904</v>
+        <v>47.54223047222055</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.697841118943717</v>
+        <v>44.53193051558074</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2565339792963333</v>
+        <v>1e-30</v>
       </c>
       <c r="I3" t="n">
-        <v>2918.3103020424</v>
+        <v>2925.172973150331</v>
       </c>
       <c r="J3" t="n">
-        <v>-4.429240049291742</v>
+        <v>46.82093326295253</v>
       </c>
       <c r="K3" t="n">
-        <v>187.857439976083</v>
+        <v>187.8778416538028</v>
       </c>
       <c r="L3" t="n">
-        <v>64.40652231409662</v>
+        <v>1.082064662563559</v>
       </c>
       <c r="M3" t="n">
-        <v>-91.57815784325091</v>
+        <v>157.5479917579363</v>
       </c>
       <c r="N3" t="n">
-        <v>-34.42924004929174</v>
+        <v>16.82093326295253</v>
       </c>
       <c r="O3" t="n">
         <v>30</v>
       </c>
       <c r="P3" t="n">
-        <v>-192.2866800253747</v>
+        <v>-141.0569083908502</v>
       </c>
       <c r="Q3" t="n">
-        <v>-192.2866800253747</v>
+        <v>-141.0569083908502</v>
       </c>
       <c r="R3" t="n">
-        <v>3971.024802073922</v>
+        <v>3964.814485118334</v>
       </c>
       <c r="S3" t="n">
-        <v>792.6478652316905</v>
+        <v>793.2333915568726</v>
       </c>
       <c r="T3" t="n">
-        <v>-5718.079312212645</v>
+        <v>-5722.306922553427</v>
       </c>
       <c r="U3" t="n">
-        <v>6.20815655767338</v>
+        <v>6.212739941296362</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.5859881646015546</v>
+        <v>-0.5850722207809311</v>
       </c>
       <c r="W3" t="n">
-        <v>4.231005059712987</v>
+        <v>4.224379691432796</v>
       </c>
       <c r="X3" t="n">
-        <v>7.535648199654293</v>
+        <v>7.53563738904006</v>
       </c>
     </row>
     <row r="4">
@@ -710,72 +710,72 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>164.3523594823964</v>
+        <v>164.3720347138698</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1805521969355912</v>
+        <v>0.1189155499117497</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>22 Jun 2025 10:15:22.000000000</t>
+          <t>22 Jun 2025 10:15:21.000000000</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>-20.11735012125214</v>
+        <v>48.70510434832575</v>
       </c>
       <c r="G4" t="n">
-        <v>-23.12765007789195</v>
+        <v>45.69480439168594</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4607048917850871</v>
+        <v>1e-30</v>
       </c>
       <c r="I4" t="n">
-        <v>2911.447771944785</v>
+        <v>2918.3103020424</v>
       </c>
       <c r="J4" t="n">
-        <v>-20.87949829819052</v>
+        <v>47.96340546133792</v>
       </c>
       <c r="K4" t="n">
-        <v>187.8369906861324</v>
+        <v>187.857439976083</v>
       </c>
       <c r="L4" t="n">
-        <v>64.44011107032608</v>
+        <v>1.017791644780838</v>
       </c>
       <c r="M4" t="n">
-        <v>-91.63942431495674</v>
+        <v>157.2267571087387</v>
       </c>
       <c r="N4" t="n">
-        <v>-50.87949829819052</v>
+        <v>17.96340546133792</v>
       </c>
       <c r="O4" t="n">
         <v>30</v>
       </c>
       <c r="P4" t="n">
-        <v>-208.7164889843229</v>
+        <v>-139.894034514745</v>
       </c>
       <c r="Q4" t="n">
-        <v>-208.7164889843229</v>
+        <v>-139.894034514745</v>
       </c>
       <c r="R4" t="n">
-        <v>3977.230532691764</v>
+        <v>3971.024802073922</v>
       </c>
       <c r="S4" t="n">
-        <v>792.0614204107339</v>
+        <v>792.6478652316905</v>
       </c>
       <c r="T4" t="n">
-        <v>-5713.845079086444</v>
+        <v>-5718.079312212645</v>
       </c>
       <c r="U4" t="n">
-        <v>6.203565970516524</v>
+        <v>6.20815655767338</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.5869034424524529</v>
+        <v>-0.5859881646015546</v>
       </c>
       <c r="W4" t="n">
-        <v>4.237625573610226</v>
+        <v>4.231005059712987</v>
       </c>
       <c r="X4" t="n">
-        <v>7.535659022502847</v>
+        <v>7.535648199654293</v>
       </c>
     </row>
     <row r="5">
@@ -786,72 +786,72 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>164.3326087157616</v>
+        <v>164.3720347138698</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2423328774528022</v>
+        <v>0.1189155499117497</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>22 Jun 2025 10:15:23.000000000</t>
+          <t>22 Jun 2025 10:15:21.000000000</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>-1.519721800283328</v>
+        <v>48.30316969076519</v>
       </c>
       <c r="G5" t="n">
-        <v>-4.530021756923141</v>
+        <v>45.29286973412538</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2005980764039828</v>
+        <v>1e-30</v>
       </c>
       <c r="I5" t="n">
-        <v>2904.585393382574</v>
+        <v>2918.3103020424</v>
       </c>
       <c r="J5" t="n">
-        <v>-2.302367071654412</v>
+        <v>47.56147080377735</v>
       </c>
       <c r="K5" t="n">
-        <v>187.8164935916997</v>
+        <v>187.857439976083</v>
       </c>
       <c r="L5" t="n">
-        <v>64.54046223312703</v>
+        <v>1.084897493908163</v>
       </c>
       <c r="M5" t="n">
-        <v>-91.75113481233413</v>
+        <v>157.5351863568948</v>
       </c>
       <c r="N5" t="n">
-        <v>-32.30236707165442</v>
+        <v>17.56147080377735</v>
       </c>
       <c r="O5" t="n">
         <v>30</v>
       </c>
       <c r="P5" t="n">
-        <v>-190.1188606633541</v>
+        <v>-140.2959691723056</v>
       </c>
       <c r="Q5" t="n">
-        <v>-190.1188606633541</v>
+        <v>-140.2959691723056</v>
       </c>
       <c r="R5" t="n">
-        <v>3983.431669203378</v>
+        <v>3971.024802073922</v>
       </c>
       <c r="S5" t="n">
-        <v>791.4740606659127</v>
+        <v>792.6478652316905</v>
       </c>
       <c r="T5" t="n">
-        <v>-5709.604228024526</v>
+        <v>-5718.079312212645</v>
       </c>
       <c r="U5" t="n">
-        <v>6.198968185414889</v>
+        <v>6.20815655767338</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.5878180487517056</v>
+        <v>-0.5859881646015546</v>
       </c>
       <c r="W5" t="n">
-        <v>4.244241225444621</v>
+        <v>4.231005059712987</v>
       </c>
       <c r="X5" t="n">
-        <v>7.535669857550016</v>
+        <v>7.535648199654293</v>
       </c>
     </row>
     <row r="6">
@@ -862,72 +862,72 @@
         <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>164.3127818192124</v>
+        <v>164.3523594823964</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3042586004226873</v>
+        <v>0.1805521969355912</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22 Jun 2025 10:15:24.000000000</t>
+          <t>22 Jun 2025 10:15:22.000000000</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>-2.946303599871745</v>
+        <v>49.34249757139763</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.956603556511557</v>
+        <v>46.33219761475782</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2381284063978639</v>
+        <v>1e-30</v>
       </c>
       <c r="I6" t="n">
-        <v>2897.72317588242</v>
+        <v>2911.447771944785</v>
       </c>
       <c r="J6" t="n">
-        <v>-3.749493966684414</v>
+        <v>48.58034939445925</v>
       </c>
       <c r="K6" t="n">
-        <v>187.7959484962581</v>
+        <v>187.8369906861324</v>
       </c>
       <c r="L6" t="n">
-        <v>64.64102653399237</v>
+        <v>1.020466796418915</v>
       </c>
       <c r="M6" t="n">
-        <v>-91.86332946485383</v>
+        <v>157.2135969205697</v>
       </c>
       <c r="N6" t="n">
-        <v>-33.74949396668442</v>
+        <v>18.58034939445925</v>
       </c>
       <c r="O6" t="n">
         <v>30</v>
       </c>
       <c r="P6" t="n">
-        <v>-191.5454424629425</v>
+        <v>-139.2566412916732</v>
       </c>
       <c r="Q6" t="n">
-        <v>-191.5454424629425</v>
+        <v>-139.2566412916732</v>
       </c>
       <c r="R6" t="n">
-        <v>3989.628204424113</v>
+        <v>3977.230532691764</v>
       </c>
       <c r="S6" t="n">
-        <v>790.8857866680629</v>
+        <v>792.0614204107339</v>
       </c>
       <c r="T6" t="n">
-        <v>-5705.356763885603</v>
+        <v>-5713.845079086444</v>
       </c>
       <c r="U6" t="n">
-        <v>6.194363207539146</v>
+        <v>6.203565970516524</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.5887319824418172</v>
+        <v>-0.5869034424524529</v>
       </c>
       <c r="W6" t="n">
-        <v>4.250852007542636</v>
+        <v>4.237625573610226</v>
       </c>
       <c r="X6" t="n">
-        <v>7.535680704760108</v>
+        <v>7.535659022502847</v>
       </c>
     </row>
     <row r="7">
@@ -938,72 +938,72 @@
         <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>164.2928781379061</v>
+        <v>164.3523594823964</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3663303739751057</v>
+        <v>0.1805521969355912</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>22 Jun 2025 10:15:25.000000000</t>
+          <t>22 Jun 2025 10:15:22.000000000</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>-16.0010088048967</v>
+        <v>48.85477880728143</v>
       </c>
       <c r="G7" t="n">
-        <v>-19.01130876153651</v>
+        <v>45.84447885064162</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4370428696106533</v>
+        <v>1e-30</v>
       </c>
       <c r="I7" t="n">
-        <v>2890.861130146279</v>
+        <v>2911.447771944785</v>
       </c>
       <c r="J7" t="n">
-        <v>-16.82479246247755</v>
+        <v>48.09263063034305</v>
       </c>
       <c r="K7" t="n">
-        <v>187.7753552054899</v>
+        <v>187.8369906861324</v>
       </c>
       <c r="L7" t="n">
-        <v>64.74180356266436</v>
+        <v>1.087750651386353</v>
       </c>
       <c r="M7" t="n">
-        <v>-91.97601348318049</v>
+        <v>157.522428017705</v>
       </c>
       <c r="N7" t="n">
-        <v>-46.82479246247755</v>
+        <v>18.09263063034305</v>
       </c>
       <c r="O7" t="n">
         <v>30</v>
       </c>
       <c r="P7" t="n">
-        <v>-204.6001476679675</v>
+        <v>-139.7443600557893</v>
       </c>
       <c r="Q7" t="n">
-        <v>-204.6001476679675</v>
+        <v>-139.7443600557893</v>
       </c>
       <c r="R7" t="n">
-        <v>3995.820130571773</v>
+        <v>3977.230532691764</v>
       </c>
       <c r="S7" t="n">
-        <v>790.2966020162645</v>
+        <v>792.0614204107339</v>
       </c>
       <c r="T7" t="n">
-        <v>-5701.102691552643</v>
+        <v>-5713.845079086444</v>
       </c>
       <c r="U7" t="n">
-        <v>6.189751042517923</v>
+        <v>6.203565970516524</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.5896452379552589</v>
+        <v>-0.5869034424524529</v>
       </c>
       <c r="W7" t="n">
-        <v>4.257457912206819</v>
+        <v>4.237625573610226</v>
       </c>
       <c r="X7" t="n">
-        <v>7.535691564097316</v>
+        <v>7.535659022502847</v>
       </c>
     </row>
     <row r="8">
@@ -1014,72 +1014,72 @@
         <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>164.2728971733639</v>
+        <v>164.3326087157616</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4285492449899483</v>
+        <v>0.2423328774528022</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>22 Jun 2025 10:15:26.000000000</t>
+          <t>22 Jun 2025 10:15:23.000000000</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>-1.24379679513368</v>
+        <v>49.80263764233836</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.254096751773492</v>
+        <v>46.79233768569855</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1930852690758529</v>
+        <v>1e-30</v>
       </c>
       <c r="I8" t="n">
-        <v>2883.99926371206</v>
+        <v>2904.585393382574</v>
       </c>
       <c r="J8" t="n">
-        <v>-2.088222143956951</v>
+        <v>49.01999237096728</v>
       </c>
       <c r="K8" t="n">
-        <v>187.7547135142475</v>
+        <v>187.8164935916997</v>
       </c>
       <c r="L8" t="n">
-        <v>64.84279238542892</v>
+        <v>1.023161130442921</v>
       </c>
       <c r="M8" t="n">
-        <v>-92.08919218413551</v>
+        <v>157.2004894515078</v>
       </c>
       <c r="N8" t="n">
-        <v>-32.08822214395695</v>
+        <v>19.01999237096728</v>
       </c>
       <c r="O8" t="n">
         <v>30</v>
       </c>
       <c r="P8" t="n">
-        <v>-189.8429356582045</v>
+        <v>-138.7965012207324</v>
       </c>
       <c r="Q8" t="n">
-        <v>-189.8429356582045</v>
+        <v>-138.7965012207324</v>
       </c>
       <c r="R8" t="n">
-        <v>4002.007441609711</v>
+        <v>3983.431669203378</v>
       </c>
       <c r="S8" t="n">
-        <v>789.7065015412812</v>
+        <v>791.4740606659127</v>
       </c>
       <c r="T8" t="n">
-        <v>-5696.842015913154</v>
+        <v>-5709.604228024526</v>
       </c>
       <c r="U8" t="n">
-        <v>6.185131694690828</v>
+        <v>6.198968185414889</v>
       </c>
       <c r="V8" t="n">
-        <v>-0.5905578232488614</v>
+        <v>-0.5878180487517056</v>
       </c>
       <c r="W8" t="n">
-        <v>4.264058931759764</v>
+        <v>4.244241225444621</v>
       </c>
       <c r="X8" t="n">
-        <v>7.535702435525813</v>
+        <v>7.535669857550016</v>
       </c>
     </row>
     <row r="9">
@@ -1090,72 +1090,72 @@
         <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>164.2528382586671</v>
+        <v>164.3326087157616</v>
       </c>
       <c r="D9" t="n">
-        <v>0.490916240685834</v>
+        <v>0.2423328774528022</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>22 Jun 2025 10:15:27.000000000</t>
+          <t>22 Jun 2025 10:15:23.000000000</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>-3.566828900752647</v>
+        <v>49.21931807021644</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.577128857392459</v>
+        <v>46.20901811357663</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2535943724797008</v>
+        <v>1e-30</v>
       </c>
       <c r="I9" t="n">
-        <v>2877.137587391191</v>
+        <v>2904.585393382574</v>
       </c>
       <c r="J9" t="n">
-        <v>-4.431944537960756</v>
+        <v>48.43667279884535</v>
       </c>
       <c r="K9" t="n">
-        <v>187.7340232258627</v>
+        <v>187.8164935916997</v>
       </c>
       <c r="L9" t="n">
-        <v>64.94399226386743</v>
+        <v>1.090624324669255</v>
       </c>
       <c r="M9" t="n">
-        <v>-92.2028709663396</v>
+        <v>157.5097174537487</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.43194453796075</v>
+        <v>18.43667279884535</v>
       </c>
       <c r="O9" t="n">
         <v>30</v>
       </c>
       <c r="P9" t="n">
-        <v>-192.1659677638234</v>
+        <v>-139.3798207928544</v>
       </c>
       <c r="Q9" t="n">
-        <v>-192.1659677638234</v>
+        <v>-139.3798207928544</v>
       </c>
       <c r="R9" t="n">
-        <v>4008.190129797132</v>
+        <v>3983.431669203378</v>
       </c>
       <c r="S9" t="n">
-        <v>789.1154888365477</v>
+        <v>791.4740606659127</v>
       </c>
       <c r="T9" t="n">
-        <v>-5692.57474184393</v>
+        <v>-5709.604228024526</v>
       </c>
       <c r="U9" t="n">
-        <v>6.180505169679232</v>
+        <v>6.198968185414889</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.5914697327582249</v>
+        <v>-0.5878180487517056</v>
       </c>
       <c r="W9" t="n">
-        <v>4.270655058547931</v>
+        <v>4.244241225444621</v>
       </c>
       <c r="X9" t="n">
-        <v>7.535713319009808</v>
+        <v>7.535669857550016</v>
       </c>
     </row>
     <row r="10">
@@ -1166,72 +1166,72 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>164.2327007199409</v>
+        <v>164.3127818192124</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5534323974601901</v>
+        <v>0.3042586004226873</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>22 Jun 2025 10:15:28.000000000</t>
+          <t>22 Jun 2025 10:15:24.000000000</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>-12.22033375039779</v>
+        <v>50.10086590619606</v>
       </c>
       <c r="G10" t="n">
-        <v>-15.2306337070376</v>
+        <v>47.09056594955625</v>
       </c>
       <c r="H10" t="n">
-        <v>0.403268125625782</v>
+        <v>1e-30</v>
       </c>
       <c r="I10" t="n">
-        <v>2870.276112097037</v>
+        <v>2897.72317588242</v>
       </c>
       <c r="J10" t="n">
-        <v>-13.10618847081428</v>
+        <v>49.2976755393834</v>
       </c>
       <c r="K10" t="n">
-        <v>187.7132841426543</v>
+        <v>187.7959484962581</v>
       </c>
       <c r="L10" t="n">
-        <v>65.04540254075982</v>
+        <v>1.025874837983307</v>
       </c>
       <c r="M10" t="n">
-        <v>-92.31705509159833</v>
+        <v>157.187432455791</v>
       </c>
       <c r="N10" t="n">
-        <v>-43.10618847081428</v>
+        <v>19.29767553938339</v>
       </c>
       <c r="O10" t="n">
         <v>30</v>
       </c>
       <c r="P10" t="n">
-        <v>-200.8194726134686</v>
+        <v>-138.4982729568747</v>
       </c>
       <c r="Q10" t="n">
-        <v>-200.8194726134686</v>
+        <v>-138.4982729568747</v>
       </c>
       <c r="R10" t="n">
-        <v>4014.36818737927</v>
+        <v>3989.628204424113</v>
       </c>
       <c r="S10" t="n">
-        <v>788.5235675165804</v>
+        <v>790.8857866680629</v>
       </c>
       <c r="T10" t="n">
-        <v>-5688.30087424381</v>
+        <v>-5705.356763885603</v>
       </c>
       <c r="U10" t="n">
-        <v>6.175871473131128</v>
+        <v>6.194363207539146</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.5923809609300759</v>
+        <v>-0.5887319824418172</v>
       </c>
       <c r="W10" t="n">
-        <v>4.27724628490068</v>
+        <v>4.250852007542636</v>
       </c>
       <c r="X10" t="n">
-        <v>7.535724214513424</v>
+        <v>7.535680704760108</v>
       </c>
     </row>
     <row r="11">
@@ -1242,72 +1242,72 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>164.2124840413582</v>
+        <v>164.3127818192124</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6160987910465751</v>
+        <v>0.3042586004226873</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>22 Jun 2025 10:15:29.000000000</t>
+          <t>22 Jun 2025 10:15:24.000000000</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>-0.9598994400178338</v>
+        <v>49.40899309673646</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.970199396657645</v>
+        <v>46.39869314009665</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1852932961360014</v>
+        <v>1e-30</v>
       </c>
       <c r="I11" t="n">
-        <v>2863.414845575346</v>
+        <v>2897.72317588242</v>
       </c>
       <c r="J11" t="n">
-        <v>-1.86654224708628</v>
+        <v>48.60580272992379</v>
       </c>
       <c r="K11" t="n">
-        <v>187.6924960560023</v>
+        <v>187.7959484962581</v>
       </c>
       <c r="L11" t="n">
-        <v>65.14702237770483</v>
+        <v>1.093518679686076</v>
       </c>
       <c r="M11" t="n">
-        <v>-92.43175004057029</v>
+        <v>157.4970615399377</v>
       </c>
       <c r="N11" t="n">
-        <v>-31.86654224708628</v>
+        <v>18.60580272992379</v>
       </c>
       <c r="O11" t="n">
         <v>30</v>
       </c>
       <c r="P11" t="n">
-        <v>-189.5590383030886</v>
+        <v>-139.1901457663343</v>
       </c>
       <c r="Q11" t="n">
-        <v>-189.5590383030886</v>
+        <v>-139.1901457663343</v>
       </c>
       <c r="R11" t="n">
-        <v>4020.541608337709</v>
+        <v>3989.628204424113</v>
       </c>
       <c r="S11" t="n">
-        <v>787.9307323878726</v>
+        <v>790.8857866680629</v>
       </c>
       <c r="T11" t="n">
-        <v>-5684.020418019666</v>
+        <v>-5705.356763885603</v>
       </c>
       <c r="U11" t="n">
-        <v>6.171230609403352</v>
+        <v>6.194363207539146</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.5932915157037663</v>
+        <v>-0.5887319824418172</v>
       </c>
       <c r="W11" t="n">
-        <v>4.283832603161879</v>
+        <v>4.250852007542636</v>
       </c>
       <c r="X11" t="n">
-        <v>7.535735122000748</v>
+        <v>7.535680704760108</v>
       </c>
     </row>
     <row r="12">
@@ -1318,72 +1318,72 @@
         <v>9</v>
       </c>
       <c r="C12" t="n">
-        <v>164.1921875366455</v>
+        <v>164.2928781379061</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6789164772028784</v>
+        <v>0.3663303739751057</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>22 Jun 2025 10:15:30.000000000</t>
+          <t>22 Jun 2025 10:15:25.000000000</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>-4.628742524893924</v>
+        <v>50.24534164467073</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.639042481533736</v>
+        <v>47.23504168803092</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2786359957781854</v>
+        <v>1e-30</v>
       </c>
       <c r="I12" t="n">
-        <v>2856.553798894191</v>
+        <v>2890.861130146279</v>
       </c>
       <c r="J12" t="n">
-        <v>-5.556222622010361</v>
+        <v>49.42155798708988</v>
       </c>
       <c r="K12" t="n">
-        <v>187.6716587659544</v>
+        <v>187.7753552054899</v>
       </c>
       <c r="L12" t="n">
-        <v>65.24885090148318</v>
+        <v>1.028608061569873</v>
       </c>
       <c r="M12" t="n">
-        <v>-92.54696129757302</v>
+        <v>157.174436187265</v>
       </c>
       <c r="N12" t="n">
-        <v>-35.55622262201036</v>
+        <v>19.42155798708988</v>
       </c>
       <c r="O12" t="n">
         <v>30</v>
       </c>
       <c r="P12" t="n">
-        <v>-193.2278813879647</v>
+        <v>-138.3537972184001</v>
       </c>
       <c r="Q12" t="n">
-        <v>-193.2278813879647</v>
+        <v>-138.3537972184001</v>
       </c>
       <c r="R12" t="n">
-        <v>4026.710384922465</v>
+        <v>3995.820130571773</v>
       </c>
       <c r="S12" t="n">
-        <v>787.3369870632379</v>
+        <v>790.2966020162645</v>
       </c>
       <c r="T12" t="n">
-        <v>-5679.733378089316</v>
+        <v>-5701.102691552643</v>
       </c>
       <c r="U12" t="n">
-        <v>6.166582584163965</v>
+        <v>6.189751042517923</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.5942013915230462</v>
+        <v>-0.5896452379552589</v>
       </c>
       <c r="W12" t="n">
-        <v>4.290414005665844</v>
+        <v>4.257457912206819</v>
       </c>
       <c r="X12" t="n">
-        <v>7.535746041435837</v>
+        <v>7.535691564097316</v>
       </c>
     </row>
     <row r="13">
@@ -1394,72 +1394,72 @@
         <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>164.1718105676365</v>
+        <v>164.2928781379061</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7418865316612213</v>
+        <v>0.3663303739751057</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>22 Jun 2025 10:15:31.000000000</t>
+          <t>22 Jun 2025 10:15:25.000000000</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>-8.942947445341842</v>
+        <v>49.42828516210476</v>
       </c>
       <c r="G13" t="n">
-        <v>-11.95324740198165</v>
+        <v>46.41798520546495</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3604891504777021</v>
+        <v>1e-30</v>
       </c>
       <c r="I13" t="n">
-        <v>2849.69298209137</v>
+        <v>2890.861130146279</v>
       </c>
       <c r="J13" t="n">
-        <v>-9.891314240345444</v>
+        <v>48.60450150452391</v>
       </c>
       <c r="K13" t="n">
-        <v>187.6507720680672</v>
+        <v>187.7753552054899</v>
       </c>
       <c r="L13" t="n">
-        <v>65.35088731946878</v>
+        <v>1.096433910287685</v>
       </c>
       <c r="M13" t="n">
-        <v>-92.66269421791687</v>
+        <v>157.4844610276462</v>
       </c>
       <c r="N13" t="n">
-        <v>-39.89131424034544</v>
+        <v>18.60450150452391</v>
       </c>
       <c r="O13" t="n">
         <v>30</v>
       </c>
       <c r="P13" t="n">
-        <v>-197.5420863084126</v>
+        <v>-139.170853700966</v>
       </c>
       <c r="Q13" t="n">
-        <v>-197.5420863084126</v>
+        <v>-139.170853700966</v>
       </c>
       <c r="R13" t="n">
-        <v>4032.874509990546</v>
+        <v>3995.820130571773</v>
       </c>
       <c r="S13" t="n">
-        <v>786.7423322202003</v>
+        <v>790.2966020162645</v>
       </c>
       <c r="T13" t="n">
-        <v>-5675.439759361446</v>
+        <v>-5701.102691552643</v>
       </c>
       <c r="U13" t="n">
-        <v>6.161927402638226</v>
+        <v>6.189751042517923</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.5951105873365138</v>
+        <v>-0.5896452379552589</v>
       </c>
       <c r="W13" t="n">
-        <v>4.296990484781181</v>
+        <v>4.257457912206819</v>
       </c>
       <c r="X13" t="n">
-        <v>7.535756972782754</v>
+        <v>7.535691564097316</v>
       </c>
     </row>
     <row r="14">
@@ -1470,72 +1470,72 @@
         <v>9</v>
       </c>
       <c r="C14" t="n">
-        <v>164.1513524339798</v>
+        <v>164.2728971733639</v>
       </c>
       <c r="D14" t="n">
-        <v>0.805010029913887</v>
+        <v>0.4285492449899483</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>22 Jun 2025 10:15:32.000000000</t>
+          <t>22 Jun 2025 10:15:26.000000000</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>-0.7534042790197525</v>
+        <v>50.2384055892619</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.763704235659564</v>
+        <v>47.22810563262209</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1795932013892009</v>
+        <v>1e-30</v>
       </c>
       <c r="I14" t="n">
-        <v>2842.83240638419</v>
+        <v>2883.99926371206</v>
       </c>
       <c r="J14" t="n">
-        <v>-1.722707381981885</v>
+        <v>49.39398024043864</v>
       </c>
       <c r="K14" t="n">
-        <v>187.6298357601086</v>
+        <v>187.7547135142475</v>
       </c>
       <c r="L14" t="n">
-        <v>65.45313088069425</v>
+        <v>1.031361021189739</v>
       </c>
       <c r="M14" t="n">
-        <v>-92.77895441307582</v>
+        <v>157.161492445065</v>
       </c>
       <c r="N14" t="n">
-        <v>-31.72270738198188</v>
+        <v>19.39398024043864</v>
       </c>
       <c r="O14" t="n">
         <v>30</v>
       </c>
       <c r="P14" t="n">
-        <v>-189.3525431420906</v>
+        <v>-138.3607332738089</v>
       </c>
       <c r="Q14" t="n">
-        <v>-189.3525431420906</v>
+        <v>-138.3607332738089</v>
       </c>
       <c r="R14" t="n">
-        <v>4039.03397581495</v>
+        <v>4002.007441609711</v>
       </c>
       <c r="S14" t="n">
-        <v>786.1467714954896</v>
+        <v>789.7065015412812</v>
       </c>
       <c r="T14" t="n">
-        <v>-5671.13956676189</v>
+        <v>-5696.842015913154</v>
       </c>
       <c r="U14" t="n">
-        <v>6.157265070506432</v>
+        <v>6.185131694690828</v>
       </c>
       <c r="V14" t="n">
-        <v>-0.5960190976073654</v>
+        <v>-0.5905578232488614</v>
       </c>
       <c r="W14" t="n">
-        <v>4.303562032863811</v>
+        <v>4.264058931759764</v>
       </c>
       <c r="X14" t="n">
-        <v>7.535767916005519</v>
+        <v>7.535702435525813</v>
       </c>
     </row>
     <row r="15">
@@ -1546,72 +1546,72 @@
         <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>164.1308125957035</v>
+        <v>164.2728971733639</v>
       </c>
       <c r="D15" t="n">
-        <v>0.868288087517034</v>
+        <v>0.4285492449899483</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>22 Jun 2025 10:15:33.000000000</t>
+          <t>22 Jun 2025 10:15:26.000000000</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>-6.452084270577306</v>
+        <v>49.27479638867542</v>
       </c>
       <c r="G15" t="n">
-        <v>-9.462384227217116</v>
+        <v>46.26449643203561</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3171196172048328</v>
+        <v>1e-30</v>
       </c>
       <c r="I15" t="n">
-        <v>2835.972079826671</v>
+        <v>2883.99926371206</v>
       </c>
       <c r="J15" t="n">
-        <v>-7.442373504860597</v>
+        <v>48.43037103985215</v>
       </c>
       <c r="K15" t="n">
-        <v>187.6088496287875</v>
+        <v>187.7547135142475</v>
       </c>
       <c r="L15" t="n">
-        <v>65.5555804624158</v>
+        <v>1.099370235910558</v>
       </c>
       <c r="M15" t="n">
-        <v>-92.89574744033514</v>
+        <v>157.4719112340601</v>
       </c>
       <c r="N15" t="n">
-        <v>-37.4423735048606</v>
+        <v>18.43037103985215</v>
       </c>
       <c r="O15" t="n">
         <v>30</v>
       </c>
       <c r="P15" t="n">
-        <v>-195.0512231336481</v>
+        <v>-139.3243424743954</v>
       </c>
       <c r="Q15" t="n">
-        <v>-195.0512231336481</v>
+        <v>-139.3243424743954</v>
       </c>
       <c r="R15" t="n">
-        <v>4045.188776384386</v>
+        <v>4002.007441609711</v>
       </c>
       <c r="S15" t="n">
-        <v>785.5502996646323</v>
+        <v>789.7065015412812</v>
       </c>
       <c r="T15" t="n">
-        <v>-5666.832805235381</v>
+        <v>-5696.842015913154</v>
       </c>
       <c r="U15" t="n">
-        <v>6.15259559216137</v>
+        <v>6.185131694690828</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.5969269302495112</v>
+        <v>-0.5905578232488614</v>
       </c>
       <c r="W15" t="n">
-        <v>4.31012864226755</v>
+        <v>4.264058931759764</v>
       </c>
       <c r="X15" t="n">
-        <v>7.535778871068056</v>
+        <v>7.535702435525813</v>
       </c>
     </row>
     <row r="16">
@@ -1622,72 +1622,72 @@
         <v>9</v>
       </c>
       <c r="C16" t="n">
-        <v>164.1101903393469</v>
+        <v>164.2528382586671</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9317218003689791</v>
+        <v>0.490916240685834</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>22 Jun 2025 10:15:34.000000000</t>
+          <t>22 Jun 2025 10:15:27.000000000</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>-6.173502923775231</v>
+        <v>50.07699323573511</v>
       </c>
       <c r="G16" t="n">
-        <v>-9.183802880415042</v>
+        <v>47.0666932790953</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3116159041190608</v>
+        <v>1e-30</v>
       </c>
       <c r="I16" t="n">
-        <v>2829.112013780766</v>
+        <v>2877.137587391191</v>
       </c>
       <c r="J16" t="n">
-        <v>-7.184828317354653</v>
+        <v>49.211877598527</v>
       </c>
       <c r="K16" t="n">
-        <v>187.5878134694914</v>
+        <v>187.7340232258627</v>
       </c>
       <c r="L16" t="n">
-        <v>65.65823530310904</v>
+        <v>1.034133888752598</v>
       </c>
       <c r="M16" t="n">
-        <v>-93.01307878284609</v>
+        <v>157.148605168307</v>
       </c>
       <c r="N16" t="n">
-        <v>-37.18482831735465</v>
+        <v>19.211877598527</v>
       </c>
       <c r="O16" t="n">
         <v>30</v>
       </c>
       <c r="P16" t="n">
-        <v>-194.772641786846</v>
+        <v>-138.5221456273357</v>
       </c>
       <c r="Q16" t="n">
-        <v>-194.772641786846</v>
+        <v>-138.5221456273357</v>
       </c>
       <c r="R16" t="n">
-        <v>4051.338903992383</v>
+        <v>4008.190129797132</v>
       </c>
       <c r="S16" t="n">
-        <v>784.9529203606899</v>
+        <v>789.1154888365477</v>
       </c>
       <c r="T16" t="n">
-        <v>-5662.519479715783</v>
+        <v>-5692.57474184393</v>
       </c>
       <c r="U16" t="n">
-        <v>6.147918973291473</v>
+        <v>6.180505169679232</v>
       </c>
       <c r="V16" t="n">
-        <v>-0.5978340797261604</v>
+        <v>-0.5914697327582249</v>
       </c>
       <c r="W16" t="n">
-        <v>4.316690305369995</v>
+        <v>4.270655058547931</v>
       </c>
       <c r="X16" t="n">
-        <v>7.53578983793435</v>
+        <v>7.535713319009808</v>
       </c>
     </row>
     <row r="17">
@@ -1698,72 +1698,72 @@
         <v>9</v>
       </c>
       <c r="C17" t="n">
-        <v>164.089484943907</v>
+        <v>164.2528382586671</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9953122743120859</v>
+        <v>0.490916240685834</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>22 Jun 2025 10:15:35.000000000</t>
+          <t>22 Jun 2025 10:15:27.000000000</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>-0.7425829016026229</v>
+        <v>48.93895494492234</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.752882858242435</v>
+        <v>45.92865498828253</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1792938457382891</v>
+        <v>1e-30</v>
       </c>
       <c r="I17" t="n">
-        <v>2822.252219716514</v>
+        <v>2877.137587391191</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.774994688124783</v>
+        <v>48.07383930771423</v>
       </c>
       <c r="K17" t="n">
-        <v>187.5667270765487</v>
+        <v>187.7340232258627</v>
       </c>
       <c r="L17" t="n">
-        <v>65.76109439023952</v>
+        <v>1.102327855218203</v>
       </c>
       <c r="M17" t="n">
-        <v>-93.13095408665151</v>
+        <v>157.4594129107516</v>
       </c>
       <c r="N17" t="n">
-        <v>-31.77499468812478</v>
+        <v>18.07383930771424</v>
       </c>
       <c r="O17" t="n">
         <v>30</v>
       </c>
       <c r="P17" t="n">
-        <v>-189.3417217646734</v>
+        <v>-139.6601839181484</v>
       </c>
       <c r="Q17" t="n">
-        <v>-189.3417217646734</v>
+        <v>-139.6601839181484</v>
       </c>
       <c r="R17" t="n">
-        <v>4057.484350918837</v>
+        <v>4008.190129797132</v>
       </c>
       <c r="S17" t="n">
-        <v>784.3546372370001</v>
+        <v>789.1154888365477</v>
       </c>
       <c r="T17" t="n">
-        <v>-5658.199595159129</v>
+        <v>-5692.57474184393</v>
       </c>
       <c r="U17" t="n">
-        <v>6.143235219611792</v>
+        <v>6.180505169679232</v>
       </c>
       <c r="V17" t="n">
-        <v>-0.5987405405129437</v>
+        <v>-0.5914697327582249</v>
       </c>
       <c r="W17" t="n">
-        <v>4.323247014531876</v>
+        <v>4.270655058547931</v>
       </c>
       <c r="X17" t="n">
-        <v>7.535800816568286</v>
+        <v>7.535713319009808</v>
       </c>
     </row>
     <row r="18">
@@ -1774,72 +1774,72 @@
         <v>9</v>
       </c>
       <c r="C18" t="n">
-        <v>164.0686958502746</v>
+        <v>164.2327007199409</v>
       </c>
       <c r="D18" t="n">
-        <v>1.059060656301121</v>
+        <v>0.5534323974601901</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>22 Jun 2025 10:15:36.000000000</t>
+          <t>22 Jun 2025 10:15:28.000000000</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>-9.831175943370255</v>
+        <v>49.75227029259973</v>
       </c>
       <c r="G18" t="n">
-        <v>-12.84147590001007</v>
+        <v>46.74197033595992</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3735618606669747</v>
+        <v>1e-30</v>
       </c>
       <c r="I18" t="n">
-        <v>2815.392705892127</v>
+        <v>2870.276112097037</v>
       </c>
       <c r="J18" t="n">
-        <v>-10.88472457346369</v>
+        <v>48.86641557218325</v>
       </c>
       <c r="K18" t="n">
-        <v>187.5455902329773</v>
+        <v>187.7132841426543</v>
       </c>
       <c r="L18" t="n">
-        <v>65.86415669126005</v>
+        <v>1.03692685183086</v>
       </c>
       <c r="M18" t="n">
-        <v>-93.24937906701422</v>
+        <v>157.1357751375884</v>
       </c>
       <c r="N18" t="n">
-        <v>-40.88472457346369</v>
+        <v>18.86641557218325</v>
       </c>
       <c r="O18" t="n">
         <v>30</v>
       </c>
       <c r="P18" t="n">
-        <v>-198.430314806441</v>
+        <v>-138.8468685704711</v>
       </c>
       <c r="Q18" t="n">
-        <v>-198.430314806441</v>
+        <v>-138.8468685704711</v>
       </c>
       <c r="R18" t="n">
-        <v>4063.625111191426</v>
+        <v>4014.36818737927</v>
       </c>
       <c r="S18" t="n">
-        <v>783.7554450437558</v>
+        <v>788.5235675165804</v>
       </c>
       <c r="T18" t="n">
-        <v>-5653.87315651484</v>
+        <v>-5688.30087424381</v>
       </c>
       <c r="U18" t="n">
-        <v>6.138544335516608</v>
+        <v>6.175871473131128</v>
       </c>
       <c r="V18" t="n">
-        <v>-0.599646320507899</v>
+        <v>-0.5923809609300759</v>
       </c>
       <c r="W18" t="n">
-        <v>4.329798762150577</v>
+        <v>4.27724628490068</v>
       </c>
       <c r="X18" t="n">
-        <v>7.535811806933767</v>
+        <v>7.535724214513424</v>
       </c>
     </row>
     <row r="19">
@@ -1850,72 +1850,72 @@
         <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>164.0478223239076</v>
+        <v>164.2327007199409</v>
       </c>
       <c r="D19" t="n">
-        <v>1.122968073068533</v>
+        <v>0.5534323974601901</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>22 Jun 2025 10:15:37.000000000</t>
+          <t>22 Jun 2025 10:15:28.000000000</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>-3.903195371208784</v>
+        <v>48.40247651526845</v>
       </c>
       <c r="G19" t="n">
-        <v>-6.913495327848596</v>
+        <v>45.39217655862864</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2617274911154747</v>
+        <v>1e-30</v>
       </c>
       <c r="I19" t="n">
-        <v>2808.533483950788</v>
+        <v>2870.276112097037</v>
       </c>
       <c r="J19" t="n">
-        <v>-4.977931503526193</v>
+        <v>47.51662179485197</v>
       </c>
       <c r="K19" t="n">
-        <v>187.5244027307534</v>
+        <v>187.7132841426543</v>
       </c>
       <c r="L19" t="n">
-        <v>65.96742129731038</v>
+        <v>1.105306930137825</v>
       </c>
       <c r="M19" t="n">
-        <v>-93.36835927830136</v>
+        <v>157.4469758157683</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.97793150352619</v>
+        <v>17.51662179485197</v>
       </c>
       <c r="O19" t="n">
         <v>30</v>
       </c>
       <c r="P19" t="n">
-        <v>-192.5023342342796</v>
+        <v>-140.1966623478023</v>
       </c>
       <c r="Q19" t="n">
-        <v>-192.5023342342796</v>
+        <v>-140.1966623478023</v>
       </c>
       <c r="R19" t="n">
-        <v>4069.761177089858</v>
+        <v>4014.36818737927</v>
       </c>
       <c r="S19" t="n">
-        <v>783.1553474327429</v>
+        <v>788.5235675165804</v>
       </c>
       <c r="T19" t="n">
-        <v>-5649.54016876151</v>
+        <v>-5688.30087424381</v>
       </c>
       <c r="U19" t="n">
-        <v>6.133846326744925</v>
+        <v>6.175871473131128</v>
       </c>
       <c r="V19" t="n">
-        <v>-0.6005514141834507</v>
+        <v>-0.5923809609300759</v>
       </c>
       <c r="W19" t="n">
-        <v>4.336345540586393</v>
+        <v>4.27724628490068</v>
       </c>
       <c r="X19" t="n">
-        <v>7.535822808994611</v>
+        <v>7.535724214513424</v>
       </c>
     </row>
     <row r="20">
@@ -1926,72 +1926,72 @@
         <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>164.026863679222</v>
+        <v>164.2124840413582</v>
       </c>
       <c r="D20" t="n">
-        <v>1.187035672437227</v>
+        <v>0.6160987910465751</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>22 Jun 2025 10:15:38.000000000</t>
+          <t>22 Jun 2025 10:15:29.000000000</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>-1.096821877201755</v>
+        <v>49.24835252942085</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.107121833841568</v>
+        <v>46.23805257278104</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1890584432189018</v>
+        <v>1e-30</v>
       </c>
       <c r="I20" t="n">
-        <v>2801.674564497573</v>
+        <v>2863.414845575346</v>
       </c>
       <c r="J20" t="n">
-        <v>-2.192796383060811</v>
+        <v>48.34170972235241</v>
       </c>
       <c r="K20" t="n">
-        <v>187.5031643572117</v>
+        <v>187.6924960560023</v>
       </c>
       <c r="L20" t="n">
-        <v>66.07088704917065</v>
+        <v>1.039740097918158</v>
       </c>
       <c r="M20" t="n">
-        <v>-93.4879004477916</v>
+        <v>157.1230036848108</v>
       </c>
       <c r="N20" t="n">
-        <v>-32.19279638306081</v>
+        <v>18.34170972235241</v>
       </c>
       <c r="O20" t="n">
         <v>30</v>
       </c>
       <c r="P20" t="n">
-        <v>-189.6959607402725</v>
+        <v>-139.3507863336499</v>
       </c>
       <c r="Q20" t="n">
-        <v>-189.6959607402725</v>
+        <v>-139.3507863336499</v>
       </c>
       <c r="R20" t="n">
-        <v>4075.89254150259</v>
+        <v>4020.541608337709</v>
       </c>
       <c r="S20" t="n">
-        <v>782.5543450901694</v>
+        <v>787.9307323878726</v>
       </c>
       <c r="T20" t="n">
-        <v>-5645.200636864808</v>
+        <v>-5684.020418019666</v>
       </c>
       <c r="U20" t="n">
-        <v>6.129141198584414</v>
+        <v>6.171230609403352</v>
       </c>
       <c r="V20" t="n">
-        <v>-0.6014558204912788</v>
+        <v>-0.5932915157037663</v>
       </c>
       <c r="W20" t="n">
-        <v>4.342887342239337</v>
+        <v>4.283832603161879</v>
       </c>
       <c r="X20" t="n">
-        <v>7.535833822714661</v>
+        <v>7.535735122000748</v>
       </c>
     </row>
     <row r="21">
@@ -2002,72 +2002,72 @@
         <v>9</v>
       </c>
       <c r="C21" t="n">
-        <v>164.0058191662556</v>
+        <v>164.2124840413582</v>
       </c>
       <c r="D21" t="n">
-        <v>1.251264602698191</v>
+        <v>0.6160987910465751</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>22 Jun 2025 10:15:39.000000000</t>
+          <t>22 Jun 2025 10:15:29.000000000</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>-18.24822517926197</v>
+        <v>47.63493091076374</v>
       </c>
       <c r="G21" t="n">
-        <v>-21.25852513590178</v>
+        <v>44.62463095412392</v>
       </c>
       <c r="H21" t="n">
-        <v>0.4513126167799255</v>
+        <v>1e-30</v>
       </c>
       <c r="I21" t="n">
-        <v>2794.815959315634</v>
+        <v>2863.414845575346</v>
       </c>
       <c r="J21" t="n">
-        <v>-19.36548914045098</v>
+        <v>46.72828810369529</v>
       </c>
       <c r="K21" t="n">
-        <v>187.4818749018818</v>
+        <v>187.6924960560023</v>
       </c>
       <c r="L21" t="n">
-        <v>66.17455299528241</v>
+        <v>1.108307700015986</v>
       </c>
       <c r="M21" t="n">
-        <v>-93.60800840549095</v>
+        <v>157.4345922858724</v>
       </c>
       <c r="N21" t="n">
-        <v>-49.36548914045098</v>
+        <v>16.72828810369529</v>
       </c>
       <c r="O21" t="n">
         <v>30</v>
       </c>
       <c r="P21" t="n">
-        <v>-206.8473640423328</v>
+        <v>-140.964207952307</v>
       </c>
       <c r="Q21" t="n">
-        <v>-206.8473640423328</v>
+        <v>-140.964207952307</v>
       </c>
       <c r="R21" t="n">
-        <v>4082.019196753073</v>
+        <v>4020.541608337709</v>
       </c>
       <c r="S21" t="n">
-        <v>781.9524416897601</v>
+        <v>787.9307323878726</v>
       </c>
       <c r="T21" t="n">
-        <v>-5640.85456579661</v>
+        <v>-5684.020418019666</v>
       </c>
       <c r="U21" t="n">
-        <v>6.124428956770285</v>
+        <v>6.171230609403352</v>
       </c>
       <c r="V21" t="n">
-        <v>-0.602359533926232</v>
+        <v>-0.5932915157037663</v>
       </c>
       <c r="W21" t="n">
-        <v>4.349424159513506</v>
+        <v>4.283832603161879</v>
       </c>
       <c r="X21" t="n">
-        <v>7.535844848057712</v>
+        <v>7.535735122000748</v>
       </c>
     </row>
     <row r="22">
@@ -2078,72 +2078,72 @@
         <v>9</v>
       </c>
       <c r="C22" t="n">
-        <v>163.984688199481</v>
+        <v>164.1921875366455</v>
       </c>
       <c r="D22" t="n">
-        <v>1.315656053675704</v>
+        <v>0.6789164772028784</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>22 Jun 2025 10:15:40.000000000</t>
+          <t>22 Jun 2025 10:15:30.000000000</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>-2.153261179391278</v>
+        <v>48.5396657157763</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.163561136031091</v>
+        <v>45.52936575913649</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2175673293395493</v>
+        <v>1e-30</v>
       </c>
       <c r="I22" t="n">
-        <v>2787.957677020446</v>
+        <v>2856.553798894191</v>
       </c>
       <c r="J22" t="n">
-        <v>-3.291865899482536</v>
+        <v>47.61218561865987</v>
       </c>
       <c r="K22" t="n">
-        <v>187.4605341429796</v>
+        <v>187.6716587659544</v>
       </c>
       <c r="L22" t="n">
-        <v>66.27841796139683</v>
+        <v>1.042573818405786</v>
       </c>
       <c r="M22" t="n">
-        <v>-93.72868876597455</v>
+        <v>157.1102916116655</v>
       </c>
       <c r="N22" t="n">
-        <v>-33.29186589948253</v>
+        <v>17.61218561865987</v>
       </c>
       <c r="O22" t="n">
         <v>30</v>
       </c>
       <c r="P22" t="n">
-        <v>-190.7524000424621</v>
+        <v>-140.0594731472945</v>
       </c>
       <c r="Q22" t="n">
-        <v>-190.7524000424621</v>
+        <v>-140.0594731472945</v>
       </c>
       <c r="R22" t="n">
-        <v>4088.141136855705</v>
+        <v>4026.710384922465</v>
       </c>
       <c r="S22" t="n">
-        <v>781.3496319525829</v>
+        <v>787.3369870632379</v>
       </c>
       <c r="T22" t="n">
-        <v>-5636.501960558697</v>
+        <v>-5679.733378089316</v>
       </c>
       <c r="U22" t="n">
-        <v>6.11970960574857</v>
+        <v>6.166582584163965</v>
       </c>
       <c r="V22" t="n">
-        <v>-0.6032625623581436</v>
+        <v>-0.5942013915230462</v>
       </c>
       <c r="W22" t="n">
-        <v>4.355955984794431</v>
+        <v>4.290414005665844</v>
       </c>
       <c r="X22" t="n">
-        <v>7.535855884987495</v>
+        <v>7.535746041435837</v>
       </c>
     </row>
     <row r="23">
@@ -2154,72 +2154,72 @@
         <v>9</v>
       </c>
       <c r="C23" t="n">
-        <v>163.9634700146374</v>
+        <v>164.1921875366455</v>
       </c>
       <c r="D23" t="n">
-        <v>1.380211195572685</v>
+        <v>0.6789164772028784</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>22 Jun 2025 10:15:41.000000000</t>
+          <t>22 Jun 2025 10:15:30.000000000</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>-2.087330291833162</v>
+        <v>46.58690259753228</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.097630248472974</v>
+        <v>43.57660264089247</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2158219046493989</v>
+        <v>1e-30</v>
       </c>
       <c r="I23" t="n">
-        <v>2781.099729570777</v>
+        <v>2856.553798894191</v>
       </c>
       <c r="J23" t="n">
-        <v>-3.247327287296227</v>
+        <v>45.65942250041584</v>
       </c>
       <c r="K23" t="n">
-        <v>187.4391418676077</v>
+        <v>187.6716587659544</v>
       </c>
       <c r="L23" t="n">
-        <v>66.38248081168098</v>
+        <v>1.111330370797694</v>
       </c>
       <c r="M23" t="n">
-        <v>-93.84994736907396</v>
+        <v>157.4222631025538</v>
       </c>
       <c r="N23" t="n">
-        <v>-33.24732728729622</v>
+        <v>15.65942250041584</v>
       </c>
       <c r="O23" t="n">
         <v>30</v>
       </c>
       <c r="P23" t="n">
-        <v>-190.6864691549039</v>
+        <v>-142.0122362655385</v>
       </c>
       <c r="Q23" t="n">
-        <v>-190.6864691549039</v>
+        <v>-142.0122362655385</v>
       </c>
       <c r="R23" t="n">
-        <v>4094.258354138889</v>
+        <v>4026.710384922465</v>
       </c>
       <c r="S23" t="n">
-        <v>780.7459195508571</v>
+        <v>787.3369870632379</v>
       </c>
       <c r="T23" t="n">
-        <v>-5632.142826141836</v>
+        <v>-5679.733378089316</v>
       </c>
       <c r="U23" t="n">
-        <v>6.114983151274507</v>
+        <v>6.166582584163965</v>
       </c>
       <c r="V23" t="n">
-        <v>-0.6041649002786011</v>
+        <v>-0.5942013915230462</v>
       </c>
       <c r="W23" t="n">
-        <v>4.362482810491387</v>
+        <v>4.290414005665844</v>
       </c>
       <c r="X23" t="n">
-        <v>7.535866933467747</v>
+        <v>7.535746041435837</v>
       </c>
     </row>
     <row r="24">
@@ -2230,72 +2230,72 @@
         <v>9</v>
       </c>
       <c r="C24" t="n">
-        <v>163.9421638391157</v>
+        <v>164.1718105676365</v>
       </c>
       <c r="D24" t="n">
-        <v>1.444931209694359</v>
+        <v>0.7418865316612213</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>22 Jun 2025 10:15:42.000000000</t>
+          <t>22 Jun 2025 10:15:31.000000000</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>-18.27384190617278</v>
+        <v>47.58586263304029</v>
       </c>
       <c r="G24" t="n">
-        <v>-21.28414186281259</v>
+        <v>44.57556267640048</v>
       </c>
       <c r="H24" t="n">
-        <v>0.4514552849456189</v>
+        <v>1e-30</v>
       </c>
       <c r="I24" t="n">
-        <v>2774.242129006447</v>
+        <v>2849.69298209137</v>
       </c>
       <c r="J24" t="n">
-        <v>-19.45528290758702</v>
+        <v>46.6374958380367</v>
       </c>
       <c r="K24" t="n">
-        <v>187.4176978616566</v>
+        <v>187.6507720680672</v>
       </c>
       <c r="L24" t="n">
-        <v>66.48674031780706</v>
+        <v>1.045428220099752</v>
       </c>
       <c r="M24" t="n">
-        <v>-93.97179005771898</v>
+        <v>157.0976367184498</v>
       </c>
       <c r="N24" t="n">
-        <v>-49.45528290758702</v>
+        <v>16.63749583803669</v>
       </c>
       <c r="O24" t="n">
         <v>30</v>
       </c>
       <c r="P24" t="n">
-        <v>-206.8729807692436</v>
+        <v>-141.0132762300305</v>
       </c>
       <c r="Q24" t="n">
-        <v>-206.8729807692436</v>
+        <v>-141.0132762300305</v>
       </c>
       <c r="R24" t="n">
-        <v>4100.370840948545</v>
+        <v>4032.874509990546</v>
       </c>
       <c r="S24" t="n">
-        <v>780.1413081740387</v>
+        <v>786.7423322202003</v>
       </c>
       <c r="T24" t="n">
-        <v>-5627.777167536991</v>
+        <v>-5675.439759361446</v>
       </c>
       <c r="U24" t="n">
-        <v>6.110249599106192</v>
+        <v>6.161927402638226</v>
       </c>
       <c r="V24" t="n">
-        <v>-0.6050665421961756</v>
+        <v>-0.5951105873365138</v>
       </c>
       <c r="W24" t="n">
-        <v>4.369004629029969</v>
+        <v>4.296990484781181</v>
       </c>
       <c r="X24" t="n">
-        <v>7.535877993462202</v>
+        <v>7.535756972782754</v>
       </c>
     </row>
     <row r="25">
@@ -2306,72 +2306,72 @@
         <v>9</v>
       </c>
       <c r="C25" t="n">
-        <v>163.9207690665459</v>
+        <v>164.1718105676365</v>
       </c>
       <c r="D25" t="n">
-        <v>1.509817319452417</v>
+        <v>0.7418865316612213</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>22 Jun 2025 10:15:43.000000000</t>
+          <t>22 Jun 2025 10:15:31.000000000</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>-0.9950557432306699</v>
+        <v>45.17572685151413</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.005355699870482</v>
+        <v>42.16542689487432</v>
       </c>
       <c r="H25" t="n">
-        <v>0.186261220822959</v>
+        <v>1e-30</v>
       </c>
       <c r="I25" t="n">
-        <v>2767.384884207488</v>
+        <v>2849.69298209137</v>
       </c>
       <c r="J25" t="n">
-        <v>-2.197992706680083</v>
+        <v>44.22736005651052</v>
       </c>
       <c r="K25" t="n">
-        <v>187.3962018996214</v>
+        <v>187.6507720680672</v>
       </c>
       <c r="L25" t="n">
-        <v>66.59119538780284</v>
+        <v>1.114375122855263</v>
       </c>
       <c r="M25" t="n">
-        <v>-94.09422259177229</v>
+        <v>157.4099952557694</v>
       </c>
       <c r="N25" t="n">
-        <v>-32.19799270668008</v>
+        <v>14.22736005651052</v>
       </c>
       <c r="O25" t="n">
         <v>30</v>
       </c>
       <c r="P25" t="n">
-        <v>-189.5941946063014</v>
+        <v>-143.4234120115567</v>
       </c>
       <c r="Q25" t="n">
-        <v>-189.5941946063014</v>
+        <v>-143.4234120115567</v>
       </c>
       <c r="R25" t="n">
-        <v>4106.478591302091</v>
+        <v>4032.874509990546</v>
       </c>
       <c r="S25" t="n">
-        <v>779.535792520799</v>
+        <v>786.7423322202003</v>
       </c>
       <c r="T25" t="n">
-        <v>-5623.404989776136</v>
+        <v>-5675.439759361446</v>
       </c>
       <c r="U25" t="n">
-        <v>6.105508953718683</v>
+        <v>6.161927402638226</v>
       </c>
       <c r="V25" t="n">
-        <v>-0.605967495960427</v>
+        <v>-0.5951105873365138</v>
       </c>
       <c r="W25" t="n">
-        <v>4.375521432800817</v>
+        <v>4.296990484781181</v>
       </c>
       <c r="X25" t="n">
-        <v>7.535889064934467</v>
+        <v>7.535756972782754</v>
       </c>
     </row>
     <row r="26">
@@ -2382,72 +2382,72 @@
         <v>9</v>
       </c>
       <c r="C26" t="n">
-        <v>163.899284909397</v>
+        <v>164.1513524339798</v>
       </c>
       <c r="D26" t="n">
-        <v>1.57487072893327</v>
+        <v>0.805010029913887</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>22 Jun 2025 10:15:44.000000000</t>
+          <t>22 Jun 2025 10:15:32.000000000</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>-4.247496138882466</v>
+        <v>46.32175744378917</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.257796095522279</v>
+        <v>43.31145748714935</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2698612953624286</v>
+        <v>1e-30</v>
       </c>
       <c r="I26" t="n">
-        <v>2760.528007384252</v>
+        <v>2842.83240638419</v>
       </c>
       <c r="J26" t="n">
-        <v>-5.47198123706632</v>
+        <v>45.35245434082704</v>
       </c>
       <c r="K26" t="n">
-        <v>187.3746537648869</v>
+        <v>187.6298357601086</v>
       </c>
       <c r="L26" t="n">
-        <v>66.69584472640152</v>
+        <v>1.048303458390548</v>
       </c>
       <c r="M26" t="n">
-        <v>-94.21725086245158</v>
+        <v>157.0850493982175</v>
       </c>
       <c r="N26" t="n">
-        <v>-35.47198123706632</v>
+        <v>15.35245434082704</v>
       </c>
       <c r="O26" t="n">
         <v>30</v>
       </c>
       <c r="P26" t="n">
-        <v>-192.8466350019532</v>
+        <v>-142.2773814192816</v>
       </c>
       <c r="Q26" t="n">
-        <v>-192.8466350019532</v>
+        <v>-142.2773814192816</v>
       </c>
       <c r="R26" t="n">
-        <v>4112.581597560728</v>
+        <v>4039.03397581495</v>
       </c>
       <c r="S26" t="n">
-        <v>778.929376278172</v>
+        <v>786.1467714954896</v>
       </c>
       <c r="T26" t="n">
-        <v>-5619.02629786171</v>
+        <v>-5671.13956676189</v>
       </c>
       <c r="U26" t="n">
-        <v>6.100761220882074</v>
+        <v>6.157265070506432</v>
       </c>
       <c r="V26" t="n">
-        <v>-0.6068677560780356</v>
+        <v>-0.5960190976073654</v>
       </c>
       <c r="W26" t="n">
-        <v>4.382033214245772</v>
+        <v>4.303562032863811</v>
       </c>
       <c r="X26" t="n">
-        <v>7.535900147848222</v>
+        <v>7.535767916005519</v>
       </c>
     </row>
     <row r="27">
@@ -2458,71 +2458,1971 @@
         <v>9</v>
       </c>
       <c r="C27" t="n">
+        <v>164.1513524339798</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.805010029913887</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>22 Jun 2025 10:15:32.000000000</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>43.25248558558114</v>
+      </c>
+      <c r="G27" t="n">
+        <v>40.24218562894133</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1e-30</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2842.83240638419</v>
+      </c>
+      <c r="J27" t="n">
+        <v>42.283182482619</v>
+      </c>
+      <c r="K27" t="n">
+        <v>187.6298357601086</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.117442165797901</v>
+      </c>
+      <c r="M27" t="n">
+        <v>157.3977895653996</v>
+      </c>
+      <c r="N27" t="n">
+        <v>12.28318248261901</v>
+      </c>
+      <c r="O27" t="n">
+        <v>30</v>
+      </c>
+      <c r="P27" t="n">
+        <v>-145.3466532774897</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>-145.3466532774897</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4039.03397581495</v>
+      </c>
+      <c r="S27" t="n">
+        <v>786.1467714954896</v>
+      </c>
+      <c r="T27" t="n">
+        <v>-5671.13956676189</v>
+      </c>
+      <c r="U27" t="n">
+        <v>6.157265070506432</v>
+      </c>
+      <c r="V27" t="n">
+        <v>-0.5960190976073654</v>
+      </c>
+      <c r="W27" t="n">
+        <v>4.303562032863811</v>
+      </c>
+      <c r="X27" t="n">
+        <v>7.535767916005519</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>9</v>
+      </c>
+      <c r="C28" t="n">
+        <v>164.1308125957035</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.868288087517034</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>22 Jun 2025 10:15:33.000000000</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>44.63538653208319</v>
+      </c>
+      <c r="G28" t="n">
+        <v>41.62508657544338</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1e-30</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2835.972079826671</v>
+      </c>
+      <c r="J28" t="n">
+        <v>43.6450972977999</v>
+      </c>
+      <c r="K28" t="n">
+        <v>187.6088496287875</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.051199770051961</v>
+      </c>
+      <c r="M28" t="n">
+        <v>157.0725214539926</v>
+      </c>
+      <c r="N28" t="n">
+        <v>13.6450972977999</v>
+      </c>
+      <c r="O28" t="n">
+        <v>30</v>
+      </c>
+      <c r="P28" t="n">
+        <v>-143.9637523309876</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>-143.9637523309876</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4045.188776384386</v>
+      </c>
+      <c r="S28" t="n">
+        <v>785.5502996646323</v>
+      </c>
+      <c r="T28" t="n">
+        <v>-5666.832805235381</v>
+      </c>
+      <c r="U28" t="n">
+        <v>6.15259559216137</v>
+      </c>
+      <c r="V28" t="n">
+        <v>-0.5969269302495112</v>
+      </c>
+      <c r="W28" t="n">
+        <v>4.31012864226755</v>
+      </c>
+      <c r="X28" t="n">
+        <v>7.535778871068056</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>9</v>
+      </c>
+      <c r="C29" t="n">
+        <v>164.1308125957035</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.868288087517034</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>22 Jun 2025 10:15:33.000000000</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>40.51121002605002</v>
+      </c>
+      <c r="G29" t="n">
+        <v>37.5009100694102</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1e-30</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2835.972079826671</v>
+      </c>
+      <c r="J29" t="n">
+        <v>39.52092079176672</v>
+      </c>
+      <c r="K29" t="n">
+        <v>187.6088496287875</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.120531736829488</v>
+      </c>
+      <c r="M29" t="n">
+        <v>157.3856413793383</v>
+      </c>
+      <c r="N29" t="n">
+        <v>9.520920791766724</v>
+      </c>
+      <c r="O29" t="n">
+        <v>30</v>
+      </c>
+      <c r="P29" t="n">
+        <v>-148.0879288370208</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>-148.0879288370208</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4045.188776384386</v>
+      </c>
+      <c r="S29" t="n">
+        <v>785.5502996646323</v>
+      </c>
+      <c r="T29" t="n">
+        <v>-5666.832805235381</v>
+      </c>
+      <c r="U29" t="n">
+        <v>6.15259559216137</v>
+      </c>
+      <c r="V29" t="n">
+        <v>-0.5969269302495112</v>
+      </c>
+      <c r="W29" t="n">
+        <v>4.31012864226755</v>
+      </c>
+      <c r="X29" t="n">
+        <v>7.535778871068056</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>9</v>
+      </c>
+      <c r="C30" t="n">
+        <v>164.1101903393469</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.9317218003689791</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>22 Jun 2025 10:15:34.000000000</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>42.31331422298332</v>
+      </c>
+      <c r="G30" t="n">
+        <v>39.30301426634352</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1e-30</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2829.112013780766</v>
+      </c>
+      <c r="J30" t="n">
+        <v>41.3019888294039</v>
+      </c>
+      <c r="K30" t="n">
+        <v>187.5878134694914</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.054117342174127</v>
+      </c>
+      <c r="M30" t="n">
+        <v>157.0600569187521</v>
+      </c>
+      <c r="N30" t="n">
+        <v>11.3019888294039</v>
+      </c>
+      <c r="O30" t="n">
+        <v>30</v>
+      </c>
+      <c r="P30" t="n">
+        <v>-146.2858246400875</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>-146.2858246400875</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4051.338903992383</v>
+      </c>
+      <c r="S30" t="n">
+        <v>784.9529203606899</v>
+      </c>
+      <c r="T30" t="n">
+        <v>-5662.519479715783</v>
+      </c>
+      <c r="U30" t="n">
+        <v>6.147918973291473</v>
+      </c>
+      <c r="V30" t="n">
+        <v>-0.5978340797261604</v>
+      </c>
+      <c r="W30" t="n">
+        <v>4.316690305369995</v>
+      </c>
+      <c r="X30" t="n">
+        <v>7.53578983793435</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>9</v>
+      </c>
+      <c r="C31" t="n">
+        <v>164.1101903393469</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.9317218003689791</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>22 Jun 2025 10:15:34.000000000</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>36.15100117448441</v>
+      </c>
+      <c r="G31" t="n">
+        <v>33.14070121784459</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1e-30</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2829.112013780766</v>
+      </c>
+      <c r="J31" t="n">
+        <v>35.13967578090498</v>
+      </c>
+      <c r="K31" t="n">
+        <v>187.5878134694914</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.123644050869024</v>
+      </c>
+      <c r="M31" t="n">
+        <v>157.3735515197613</v>
+      </c>
+      <c r="N31" t="n">
+        <v>5.139675780904984</v>
+      </c>
+      <c r="O31" t="n">
+        <v>30</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-152.4481376885864</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>-152.4481376885864</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4051.338903992383</v>
+      </c>
+      <c r="S31" t="n">
+        <v>784.9529203606899</v>
+      </c>
+      <c r="T31" t="n">
+        <v>-5662.519479715783</v>
+      </c>
+      <c r="U31" t="n">
+        <v>6.147918973291473</v>
+      </c>
+      <c r="V31" t="n">
+        <v>-0.5978340797261604</v>
+      </c>
+      <c r="W31" t="n">
+        <v>4.316690305369995</v>
+      </c>
+      <c r="X31" t="n">
+        <v>7.53578983793435</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>9</v>
+      </c>
+      <c r="C32" t="n">
+        <v>164.089484943907</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.9953122743120859</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>22 Jun 2025 10:15:35.000000000</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>38.86813349371135</v>
+      </c>
+      <c r="G32" t="n">
+        <v>35.85783353707154</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1e-30</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2822.252219716514</v>
+      </c>
+      <c r="J32" t="n">
+        <v>37.8357217071892</v>
+      </c>
+      <c r="K32" t="n">
+        <v>187.5667270765487</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.057056377663728</v>
+      </c>
+      <c r="M32" t="n">
+        <v>157.0476566425777</v>
+      </c>
+      <c r="N32" t="n">
+        <v>7.835721707189196</v>
+      </c>
+      <c r="O32" t="n">
+        <v>30</v>
+      </c>
+      <c r="P32" t="n">
+        <v>-149.7310053693594</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>-149.7310053693594</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4057.484350918837</v>
+      </c>
+      <c r="S32" t="n">
+        <v>784.3546372370001</v>
+      </c>
+      <c r="T32" t="n">
+        <v>-5658.199595159129</v>
+      </c>
+      <c r="U32" t="n">
+        <v>6.143235219611792</v>
+      </c>
+      <c r="V32" t="n">
+        <v>-0.5987405405129437</v>
+      </c>
+      <c r="W32" t="n">
+        <v>4.323247014531876</v>
+      </c>
+      <c r="X32" t="n">
+        <v>7.535800816568286</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>9</v>
+      </c>
+      <c r="C33" t="n">
+        <v>164.089484943907</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.9953122743120859</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>22 Jun 2025 10:15:35.000000000</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>26.33567140190044</v>
+      </c>
+      <c r="G33" t="n">
+        <v>23.32537144526063</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1e-30</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2822.252219716514</v>
+      </c>
+      <c r="J33" t="n">
+        <v>25.30325961537828</v>
+      </c>
+      <c r="K33" t="n">
+        <v>187.5667270765487</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.126779284793705</v>
+      </c>
+      <c r="M33" t="n">
+        <v>157.3615298817034</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-4.696740384621717</v>
+      </c>
+      <c r="O33" t="n">
+        <v>30</v>
+      </c>
+      <c r="P33" t="n">
+        <v>-162.2634674611703</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>-162.2634674611703</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4057.484350918837</v>
+      </c>
+      <c r="S33" t="n">
+        <v>784.3546372370001</v>
+      </c>
+      <c r="T33" t="n">
+        <v>-5658.199595159129</v>
+      </c>
+      <c r="U33" t="n">
+        <v>6.143235219611792</v>
+      </c>
+      <c r="V33" t="n">
+        <v>-0.5987405405129437</v>
+      </c>
+      <c r="W33" t="n">
+        <v>4.323247014531876</v>
+      </c>
+      <c r="X33" t="n">
+        <v>7.535800816568286</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>9</v>
+      </c>
+      <c r="C34" t="n">
+        <v>164.0686958502746</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.059060656301121</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>22 Jun 2025 10:15:36.000000000</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>32.69443034260103</v>
+      </c>
+      <c r="G34" t="n">
+        <v>29.68413038596122</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1e-30</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2815.392705892127</v>
+      </c>
+      <c r="J34" t="n">
+        <v>31.6408817125076</v>
+      </c>
+      <c r="K34" t="n">
+        <v>187.5455902329773</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.060017079486135</v>
+      </c>
+      <c r="M34" t="n">
+        <v>157.0353220359385</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.640881712507597</v>
+      </c>
+      <c r="O34" t="n">
+        <v>30</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-155.9047085204697</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>-155.9047085204697</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4063.625111191426</v>
+      </c>
+      <c r="S34" t="n">
+        <v>783.7554450437558</v>
+      </c>
+      <c r="T34" t="n">
+        <v>-5653.87315651484</v>
+      </c>
+      <c r="U34" t="n">
+        <v>6.138544335516608</v>
+      </c>
+      <c r="V34" t="n">
+        <v>-0.599646320507899</v>
+      </c>
+      <c r="W34" t="n">
+        <v>4.329798762150577</v>
+      </c>
+      <c r="X34" t="n">
+        <v>7.535811806933767</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>9</v>
+      </c>
+      <c r="C35" t="n">
+        <v>164.0686958502746</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.059060656301121</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>22 Jun 2025 10:15:36.000000000</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>27.37066818327738</v>
+      </c>
+      <c r="G35" t="n">
+        <v>24.36036822663757</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1e-30</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2815.392705892127</v>
+      </c>
+      <c r="J35" t="n">
+        <v>26.31711955318395</v>
+      </c>
+      <c r="K35" t="n">
+        <v>187.5455902329773</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.129937696688128</v>
+      </c>
+      <c r="M35" t="n">
+        <v>157.3495688137949</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-3.682880446816053</v>
+      </c>
+      <c r="O35" t="n">
+        <v>30</v>
+      </c>
+      <c r="P35" t="n">
+        <v>-161.2284706797934</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>-161.2284706797934</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4063.625111191426</v>
+      </c>
+      <c r="S35" t="n">
+        <v>783.7554450437558</v>
+      </c>
+      <c r="T35" t="n">
+        <v>-5653.87315651484</v>
+      </c>
+      <c r="U35" t="n">
+        <v>6.138544335516608</v>
+      </c>
+      <c r="V35" t="n">
+        <v>-0.599646320507899</v>
+      </c>
+      <c r="W35" t="n">
+        <v>4.329798762150577</v>
+      </c>
+      <c r="X35" t="n">
+        <v>7.535811806933767</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>9</v>
+      </c>
+      <c r="C36" t="n">
+        <v>164.0478223239076</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1.122968073068533</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>22 Jun 2025 10:15:37.000000000</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>8.235065997088778</v>
+      </c>
+      <c r="G36" t="n">
+        <v>5.224766040448965</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.004928672013752473</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2808.533483950788</v>
+      </c>
+      <c r="J36" t="n">
+        <v>7.160329864771367</v>
+      </c>
+      <c r="K36" t="n">
+        <v>187.5244027307534</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.062999655434446</v>
+      </c>
+      <c r="M36" t="n">
+        <v>157.0230539709462</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-22.83967013522863</v>
+      </c>
+      <c r="O36" t="n">
+        <v>30</v>
+      </c>
+      <c r="P36" t="n">
+        <v>-180.364072865982</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>-180.364072865982</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4069.761177089858</v>
+      </c>
+      <c r="S36" t="n">
+        <v>783.1553474327429</v>
+      </c>
+      <c r="T36" t="n">
+        <v>-5649.54016876151</v>
+      </c>
+      <c r="U36" t="n">
+        <v>6.133846326744925</v>
+      </c>
+      <c r="V36" t="n">
+        <v>-0.6005514141834507</v>
+      </c>
+      <c r="W36" t="n">
+        <v>4.336345540586393</v>
+      </c>
+      <c r="X36" t="n">
+        <v>7.535822808994611</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>9</v>
+      </c>
+      <c r="C37" t="n">
+        <v>164.0478223239076</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1.122968073068533</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>22 Jun 2025 10:15:37.000000000</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>36.53329287772444</v>
+      </c>
+      <c r="G37" t="n">
+        <v>33.52299292108463</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1e-30</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2808.533483950788</v>
+      </c>
+      <c r="J37" t="n">
+        <v>35.45855674540703</v>
+      </c>
+      <c r="K37" t="n">
+        <v>187.5244027307534</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.133119509609639</v>
+      </c>
+      <c r="M37" t="n">
+        <v>157.337669170247</v>
+      </c>
+      <c r="N37" t="n">
+        <v>5.458556745407028</v>
+      </c>
+      <c r="O37" t="n">
+        <v>30</v>
+      </c>
+      <c r="P37" t="n">
+        <v>-152.0658459853464</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>-152.0658459853464</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4069.761177089858</v>
+      </c>
+      <c r="S37" t="n">
+        <v>783.1553474327429</v>
+      </c>
+      <c r="T37" t="n">
+        <v>-5649.54016876151</v>
+      </c>
+      <c r="U37" t="n">
+        <v>6.133846326744925</v>
+      </c>
+      <c r="V37" t="n">
+        <v>-0.6005514141834507</v>
+      </c>
+      <c r="W37" t="n">
+        <v>4.336345540586393</v>
+      </c>
+      <c r="X37" t="n">
+        <v>7.535822808994611</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>9</v>
+      </c>
+      <c r="C38" t="n">
+        <v>164.026863679222</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1.187035672437227</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>22 Jun 2025 10:15:38.000000000</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>33.69780005882789</v>
+      </c>
+      <c r="G38" t="n">
+        <v>30.68750010218807</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1e-30</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2801.674564497573</v>
+      </c>
+      <c r="J38" t="n">
+        <v>32.60182555296883</v>
+      </c>
+      <c r="K38" t="n">
+        <v>187.5031643572117</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.066004328975416</v>
+      </c>
+      <c r="M38" t="n">
+        <v>157.0108503015954</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2.60182555296883</v>
+      </c>
+      <c r="O38" t="n">
+        <v>30</v>
+      </c>
+      <c r="P38" t="n">
+        <v>-154.9013388042429</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>-154.9013388042429</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4075.89254150259</v>
+      </c>
+      <c r="S38" t="n">
+        <v>782.5543450901694</v>
+      </c>
+      <c r="T38" t="n">
+        <v>-5645.200636864808</v>
+      </c>
+      <c r="U38" t="n">
+        <v>6.129141198584414</v>
+      </c>
+      <c r="V38" t="n">
+        <v>-0.6014558204912788</v>
+      </c>
+      <c r="W38" t="n">
+        <v>4.342887342239337</v>
+      </c>
+      <c r="X38" t="n">
+        <v>7.535833822714661</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>9</v>
+      </c>
+      <c r="C39" t="n">
+        <v>164.026863679222</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1.187035672437227</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>22 Jun 2025 10:15:38.000000000</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>40.78082818163804</v>
+      </c>
+      <c r="G39" t="n">
+        <v>37.77052822499824</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1e-30</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2801.674564497573</v>
+      </c>
+      <c r="J39" t="n">
+        <v>39.68485367577899</v>
+      </c>
+      <c r="K39" t="n">
+        <v>187.5031643572117</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.136324919984267</v>
+      </c>
+      <c r="M39" t="n">
+        <v>157.3258380596666</v>
+      </c>
+      <c r="N39" t="n">
+        <v>9.684853675778992</v>
+      </c>
+      <c r="O39" t="n">
+        <v>30</v>
+      </c>
+      <c r="P39" t="n">
+        <v>-147.8183106814327</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>-147.8183106814327</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4075.89254150259</v>
+      </c>
+      <c r="S39" t="n">
+        <v>782.5543450901694</v>
+      </c>
+      <c r="T39" t="n">
+        <v>-5645.200636864808</v>
+      </c>
+      <c r="U39" t="n">
+        <v>6.129141198584414</v>
+      </c>
+      <c r="V39" t="n">
+        <v>-0.6014558204912788</v>
+      </c>
+      <c r="W39" t="n">
+        <v>4.342887342239337</v>
+      </c>
+      <c r="X39" t="n">
+        <v>7.535833822714661</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>9</v>
+      </c>
+      <c r="C40" t="n">
+        <v>164.0058191662556</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1.251264602698191</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>22 Jun 2025 10:15:39.000000000</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>39.40560919100432</v>
+      </c>
+      <c r="G40" t="n">
+        <v>36.3953092343645</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1e-30</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2794.815959315634</v>
+      </c>
+      <c r="J40" t="n">
+        <v>38.28834522981531</v>
+      </c>
+      <c r="K40" t="n">
+        <v>187.4818749018818</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.069031269809937</v>
+      </c>
+      <c r="M40" t="n">
+        <v>156.9987215602386</v>
+      </c>
+      <c r="N40" t="n">
+        <v>8.288345229815304</v>
+      </c>
+      <c r="O40" t="n">
+        <v>30</v>
+      </c>
+      <c r="P40" t="n">
+        <v>-149.1935296720665</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>-149.1935296720665</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4082.019196753073</v>
+      </c>
+      <c r="S40" t="n">
+        <v>781.9524416897601</v>
+      </c>
+      <c r="T40" t="n">
+        <v>-5640.85456579661</v>
+      </c>
+      <c r="U40" t="n">
+        <v>6.124428956770285</v>
+      </c>
+      <c r="V40" t="n">
+        <v>-0.602359533926232</v>
+      </c>
+      <c r="W40" t="n">
+        <v>4.349424159513506</v>
+      </c>
+      <c r="X40" t="n">
+        <v>7.535844848057712</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>9</v>
+      </c>
+      <c r="C41" t="n">
+        <v>164.0058191662556</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1.251264602698191</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>22 Jun 2025 10:15:39.000000000</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>43.47940772206555</v>
+      </c>
+      <c r="G41" t="n">
+        <v>40.46910776542573</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1e-30</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2794.815959315634</v>
+      </c>
+      <c r="J41" t="n">
+        <v>42.36214376087653</v>
+      </c>
+      <c r="K41" t="n">
+        <v>187.4818749018818</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.139554155466925</v>
+      </c>
+      <c r="M41" t="n">
+        <v>157.314076374624</v>
+      </c>
+      <c r="N41" t="n">
+        <v>12.36214376087653</v>
+      </c>
+      <c r="O41" t="n">
+        <v>30</v>
+      </c>
+      <c r="P41" t="n">
+        <v>-145.1197311410052</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>-145.1197311410052</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4082.019196753073</v>
+      </c>
+      <c r="S41" t="n">
+        <v>781.9524416897601</v>
+      </c>
+      <c r="T41" t="n">
+        <v>-5640.85456579661</v>
+      </c>
+      <c r="U41" t="n">
+        <v>6.124428956770285</v>
+      </c>
+      <c r="V41" t="n">
+        <v>-0.602359533926232</v>
+      </c>
+      <c r="W41" t="n">
+        <v>4.349424159513506</v>
+      </c>
+      <c r="X41" t="n">
+        <v>7.535844848057712</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>9</v>
+      </c>
+      <c r="C42" t="n">
+        <v>163.984688199481</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1.315656053675704</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>22 Jun 2025 10:15:40.000000000</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>42.70567029147271</v>
+      </c>
+      <c r="G42" t="n">
+        <v>39.6953703348329</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1e-30</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2787.957677020446</v>
+      </c>
+      <c r="J42" t="n">
+        <v>41.56706557138145</v>
+      </c>
+      <c r="K42" t="n">
+        <v>187.4605341429796</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.072080733702663</v>
+      </c>
+      <c r="M42" t="n">
+        <v>156.9866595636583</v>
+      </c>
+      <c r="N42" t="n">
+        <v>11.56706557138145</v>
+      </c>
+      <c r="O42" t="n">
+        <v>30</v>
+      </c>
+      <c r="P42" t="n">
+        <v>-145.8934685715981</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>-145.8934685715981</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4088.141136855705</v>
+      </c>
+      <c r="S42" t="n">
+        <v>781.3496319525829</v>
+      </c>
+      <c r="T42" t="n">
+        <v>-5636.501960558697</v>
+      </c>
+      <c r="U42" t="n">
+        <v>6.11970960574857</v>
+      </c>
+      <c r="V42" t="n">
+        <v>-0.6032625623581436</v>
+      </c>
+      <c r="W42" t="n">
+        <v>4.355955984794431</v>
+      </c>
+      <c r="X42" t="n">
+        <v>7.535855884987495</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>9</v>
+      </c>
+      <c r="C43" t="n">
+        <v>163.984688199481</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1.315656053675704</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>22 Jun 2025 10:15:40.000000000</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>45.37469020776651</v>
+      </c>
+      <c r="G43" t="n">
+        <v>42.36439025112669</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1e-30</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2787.957677020446</v>
+      </c>
+      <c r="J43" t="n">
+        <v>44.23608548767525</v>
+      </c>
+      <c r="K43" t="n">
+        <v>187.4605341429796</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.142807471706345</v>
+      </c>
+      <c r="M43" t="n">
+        <v>157.3023795019968</v>
+      </c>
+      <c r="N43" t="n">
+        <v>14.23608548767525</v>
+      </c>
+      <c r="O43" t="n">
+        <v>30</v>
+      </c>
+      <c r="P43" t="n">
+        <v>-143.2244486553043</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>-143.2244486553043</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4088.141136855705</v>
+      </c>
+      <c r="S43" t="n">
+        <v>781.3496319525829</v>
+      </c>
+      <c r="T43" t="n">
+        <v>-5636.501960558697</v>
+      </c>
+      <c r="U43" t="n">
+        <v>6.11970960574857</v>
+      </c>
+      <c r="V43" t="n">
+        <v>-0.6032625623581436</v>
+      </c>
+      <c r="W43" t="n">
+        <v>4.355955984794431</v>
+      </c>
+      <c r="X43" t="n">
+        <v>7.535855884987495</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>9</v>
+      </c>
+      <c r="C44" t="n">
+        <v>163.9634700146374</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1.380211195572685</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>22 Jun 2025 10:15:41.000000000</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>44.95556480912071</v>
+      </c>
+      <c r="G44" t="n">
+        <v>41.9452648524809</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1e-30</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2781.099729570777</v>
+      </c>
+      <c r="J44" t="n">
+        <v>43.79556781365764</v>
+      </c>
+      <c r="K44" t="n">
+        <v>187.4391418676077</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.075152923458086</v>
+      </c>
+      <c r="M44" t="n">
+        <v>156.9746684418522</v>
+      </c>
+      <c r="N44" t="n">
+        <v>13.79556781365764</v>
+      </c>
+      <c r="O44" t="n">
+        <v>30</v>
+      </c>
+      <c r="P44" t="n">
+        <v>-143.6435740539501</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>-143.6435740539501</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4094.258354138889</v>
+      </c>
+      <c r="S44" t="n">
+        <v>780.7459195508571</v>
+      </c>
+      <c r="T44" t="n">
+        <v>-5632.142826141836</v>
+      </c>
+      <c r="U44" t="n">
+        <v>6.114983151274507</v>
+      </c>
+      <c r="V44" t="n">
+        <v>-0.6041649002786011</v>
+      </c>
+      <c r="W44" t="n">
+        <v>4.362482810491387</v>
+      </c>
+      <c r="X44" t="n">
+        <v>7.535866933467747</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>9</v>
+      </c>
+      <c r="C45" t="n">
+        <v>163.9634700146374</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1.380211195572685</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>22 Jun 2025 10:15:41.000000000</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>46.75464924637926</v>
+      </c>
+      <c r="G45" t="n">
+        <v>43.74434928973945</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1e-30</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2781.099729570777</v>
+      </c>
+      <c r="J45" t="n">
+        <v>45.5946522509162</v>
+      </c>
+      <c r="K45" t="n">
+        <v>187.4391418676077</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.146085102212184</v>
+      </c>
+      <c r="M45" t="n">
+        <v>157.2907483404074</v>
+      </c>
+      <c r="N45" t="n">
+        <v>15.59465225091619</v>
+      </c>
+      <c r="O45" t="n">
+        <v>30</v>
+      </c>
+      <c r="P45" t="n">
+        <v>-141.8444896166915</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>-141.8444896166915</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4094.258354138889</v>
+      </c>
+      <c r="S45" t="n">
+        <v>780.7459195508571</v>
+      </c>
+      <c r="T45" t="n">
+        <v>-5632.142826141836</v>
+      </c>
+      <c r="U45" t="n">
+        <v>6.114983151274507</v>
+      </c>
+      <c r="V45" t="n">
+        <v>-0.6041649002786011</v>
+      </c>
+      <c r="W45" t="n">
+        <v>4.362482810491387</v>
+      </c>
+      <c r="X45" t="n">
+        <v>7.535866933467747</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>9</v>
+      </c>
+      <c r="C46" t="n">
+        <v>163.9421638391157</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1.444931209694359</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>22 Jun 2025 10:15:42.000000000</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>46.59059767817033</v>
+      </c>
+      <c r="G46" t="n">
+        <v>43.58029772153052</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1e-30</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2774.242129006447</v>
+      </c>
+      <c r="J46" t="n">
+        <v>45.40915667675609</v>
+      </c>
+      <c r="K46" t="n">
+        <v>187.4176978616566</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.078248059210492</v>
+      </c>
+      <c r="M46" t="n">
+        <v>156.9627491210362</v>
+      </c>
+      <c r="N46" t="n">
+        <v>15.40915667675609</v>
+      </c>
+      <c r="O46" t="n">
+        <v>30</v>
+      </c>
+      <c r="P46" t="n">
+        <v>-142.0085411849005</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>-142.0085411849005</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4100.370840948545</v>
+      </c>
+      <c r="S46" t="n">
+        <v>780.1413081740387</v>
+      </c>
+      <c r="T46" t="n">
+        <v>-5627.777167536991</v>
+      </c>
+      <c r="U46" t="n">
+        <v>6.110249599106192</v>
+      </c>
+      <c r="V46" t="n">
+        <v>-0.6050665421961756</v>
+      </c>
+      <c r="W46" t="n">
+        <v>4.369004629029969</v>
+      </c>
+      <c r="X46" t="n">
+        <v>7.535877993462202</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>9</v>
+      </c>
+      <c r="C47" t="n">
+        <v>163.9421638391157</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.444931209694359</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>22 Jun 2025 10:15:42.000000000</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>47.75832373920274</v>
+      </c>
+      <c r="G47" t="n">
+        <v>44.74802378256293</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1e-30</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2774.242129006447</v>
+      </c>
+      <c r="J47" t="n">
+        <v>46.57688273778849</v>
+      </c>
+      <c r="K47" t="n">
+        <v>187.4176978616566</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.149387239871286</v>
+      </c>
+      <c r="M47" t="n">
+        <v>157.2791929223854</v>
+      </c>
+      <c r="N47" t="n">
+        <v>16.57688273778849</v>
+      </c>
+      <c r="O47" t="n">
+        <v>30</v>
+      </c>
+      <c r="P47" t="n">
+        <v>-140.8408151238681</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>-140.8408151238681</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4100.370840948545</v>
+      </c>
+      <c r="S47" t="n">
+        <v>780.1413081740387</v>
+      </c>
+      <c r="T47" t="n">
+        <v>-5627.777167536991</v>
+      </c>
+      <c r="U47" t="n">
+        <v>6.110249599106192</v>
+      </c>
+      <c r="V47" t="n">
+        <v>-0.6050665421961756</v>
+      </c>
+      <c r="W47" t="n">
+        <v>4.369004629029969</v>
+      </c>
+      <c r="X47" t="n">
+        <v>7.535877993462202</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>9</v>
+      </c>
+      <c r="C48" t="n">
+        <v>163.9207690665459</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1.509817319452417</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>22 Jun 2025 10:15:43.000000000</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>47.80430768821742</v>
+      </c>
+      <c r="G48" t="n">
+        <v>44.79400773157761</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1e-30</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2767.384884207488</v>
+      </c>
+      <c r="J48" t="n">
+        <v>46.60137072476801</v>
+      </c>
+      <c r="K48" t="n">
+        <v>187.3962018996214</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1.081366361409397</v>
+      </c>
+      <c r="M48" t="n">
+        <v>156.9509030934719</v>
+      </c>
+      <c r="N48" t="n">
+        <v>16.60137072476801</v>
+      </c>
+      <c r="O48" t="n">
+        <v>30</v>
+      </c>
+      <c r="P48" t="n">
+        <v>-140.7948311748534</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>-140.7948311748534</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4106.478591302091</v>
+      </c>
+      <c r="S48" t="n">
+        <v>779.535792520799</v>
+      </c>
+      <c r="T48" t="n">
+        <v>-5623.404989776136</v>
+      </c>
+      <c r="U48" t="n">
+        <v>6.105508953718683</v>
+      </c>
+      <c r="V48" t="n">
+        <v>-0.605967495960427</v>
+      </c>
+      <c r="W48" t="n">
+        <v>4.375521432800817</v>
+      </c>
+      <c r="X48" t="n">
+        <v>7.535889064934467</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>9</v>
+      </c>
+      <c r="C49" t="n">
+        <v>163.9207690665459</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1.509817319452417</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>22 Jun 2025 10:15:43.000000000</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>48.46058160268193</v>
+      </c>
+      <c r="G49" t="n">
+        <v>45.45028164604211</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1e-30</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2767.384884207488</v>
+      </c>
+      <c r="J49" t="n">
+        <v>47.25764463923252</v>
+      </c>
+      <c r="K49" t="n">
+        <v>187.3962018996214</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1.152714163694703</v>
+      </c>
+      <c r="M49" t="n">
+        <v>157.2677056181326</v>
+      </c>
+      <c r="N49" t="n">
+        <v>17.25764463923252</v>
+      </c>
+      <c r="O49" t="n">
+        <v>30</v>
+      </c>
+      <c r="P49" t="n">
+        <v>-140.1385572603889</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>-140.1385572603889</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4106.478591302091</v>
+      </c>
+      <c r="S49" t="n">
+        <v>779.535792520799</v>
+      </c>
+      <c r="T49" t="n">
+        <v>-5623.404989776136</v>
+      </c>
+      <c r="U49" t="n">
+        <v>6.105508953718683</v>
+      </c>
+      <c r="V49" t="n">
+        <v>-0.605967495960427</v>
+      </c>
+      <c r="W49" t="n">
+        <v>4.375521432800817</v>
+      </c>
+      <c r="X49" t="n">
+        <v>7.535889064934467</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>9</v>
+      </c>
+      <c r="C50" t="n">
+        <v>163.899284909397</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1.57487072893327</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>22 Jun 2025 10:15:44.000000000</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>48.69749335695688</v>
+      </c>
+      <c r="G50" t="n">
+        <v>45.68719340031707</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1e-30</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2760.528007384252</v>
+      </c>
+      <c r="J50" t="n">
+        <v>47.47300825877303</v>
+      </c>
+      <c r="K50" t="n">
+        <v>187.3746537648869</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.084508055062359</v>
+      </c>
+      <c r="M50" t="n">
+        <v>156.9391313093761</v>
+      </c>
+      <c r="N50" t="n">
+        <v>17.47300825877303</v>
+      </c>
+      <c r="O50" t="n">
+        <v>30</v>
+      </c>
+      <c r="P50" t="n">
+        <v>-139.9016455061139</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>-139.9016455061139</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4112.581597560728</v>
+      </c>
+      <c r="S50" t="n">
+        <v>778.929376278172</v>
+      </c>
+      <c r="T50" t="n">
+        <v>-5619.02629786171</v>
+      </c>
+      <c r="U50" t="n">
+        <v>6.100761220882074</v>
+      </c>
+      <c r="V50" t="n">
+        <v>-0.6068677560780356</v>
+      </c>
+      <c r="W50" t="n">
+        <v>4.382033214245772</v>
+      </c>
+      <c r="X50" t="n">
+        <v>7.535900147848222</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>9</v>
+      </c>
+      <c r="C51" t="n">
+        <v>163.899284909397</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1.57487072893327</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>22 Jun 2025 10:15:44.000000000</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>48.90297928069855</v>
+      </c>
+      <c r="G51" t="n">
+        <v>45.89267932405873</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1e-30</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2760.528007384252</v>
+      </c>
+      <c r="J51" t="n">
+        <v>47.67849418251469</v>
+      </c>
+      <c r="K51" t="n">
+        <v>187.3746537648869</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1.156066115016399</v>
+      </c>
+      <c r="M51" t="n">
+        <v>157.256287360568</v>
+      </c>
+      <c r="N51" t="n">
+        <v>17.67849418251469</v>
+      </c>
+      <c r="O51" t="n">
+        <v>30</v>
+      </c>
+      <c r="P51" t="n">
+        <v>-139.6961595823722</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>-139.6961595823722</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4112.581597560728</v>
+      </c>
+      <c r="S51" t="n">
+        <v>778.929376278172</v>
+      </c>
+      <c r="T51" t="n">
+        <v>-5619.02629786171</v>
+      </c>
+      <c r="U51" t="n">
+        <v>6.100761220882074</v>
+      </c>
+      <c r="V51" t="n">
+        <v>-0.6068677560780356</v>
+      </c>
+      <c r="W51" t="n">
+        <v>4.382033214245772</v>
+      </c>
+      <c r="X51" t="n">
+        <v>7.535900147848222</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>9</v>
+      </c>
+      <c r="C52" t="n">
         <v>163.8777106303031</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D52" t="n">
         <v>1.640092663779133</v>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>22 Jun 2025 10:15:45.000000000</t>
         </is>
       </c>
-      <c r="F27" t="n">
-        <v>-8.060940337948388</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-11.0712402945882</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.3463019612189228</v>
-      </c>
-      <c r="I27" t="n">
+      <c r="F52" t="n">
+        <v>49.32691303044401</v>
+      </c>
+      <c r="G52" t="n">
+        <v>46.3166130738042</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1e-30</v>
+      </c>
+      <c r="I52" t="n">
         <v>2753.671509780206</v>
       </c>
-      <c r="J27" t="n">
-        <v>-9.307025964731089</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J52" t="n">
+        <v>48.08082740366132</v>
+      </c>
+      <c r="K52" t="n">
         <v>187.3530532362881</v>
       </c>
-      <c r="L27" t="n">
-        <v>66.80068694485044</v>
-      </c>
-      <c r="M27" t="n">
-        <v>-94.34088077418656</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-39.30702596473109</v>
-      </c>
-      <c r="O27" t="n">
-        <v>30</v>
-      </c>
-      <c r="P27" t="n">
-        <v>-196.6600792010192</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>-196.6600792010192</v>
-      </c>
-      <c r="R27" t="n">
+      <c r="L52" t="n">
+        <v>1.087673382214817</v>
+      </c>
+      <c r="M52" t="n">
+        <v>156.9274316812501</v>
+      </c>
+      <c r="N52" t="n">
+        <v>18.08082740366131</v>
+      </c>
+      <c r="O52" t="n">
+        <v>30</v>
+      </c>
+      <c r="P52" t="n">
+        <v>-139.2722258326268</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>-139.2722258326268</v>
+      </c>
+      <c r="R52" t="n">
         <v>4118.679852624455</v>
       </c>
-      <c r="S27" t="n">
+      <c r="S52" t="n">
         <v>778.3220601416887</v>
       </c>
-      <c r="T27" t="n">
+      <c r="T52" t="n">
         <v>-5614.641096830874</v>
       </c>
-      <c r="U27" t="n">
+      <c r="U52" t="n">
         <v>6.096006405962054</v>
       </c>
-      <c r="V27" t="n">
+      <c r="V52" t="n">
         <v>-0.6077673215028658</v>
       </c>
-      <c r="W27" t="n">
+      <c r="W52" t="n">
         <v>4.388539965774783</v>
       </c>
-      <c r="X27" t="n">
+      <c r="X52" t="n">
         <v>7.535911242167048</v>
       </c>
     </row>

--- a/Reports/EnvEveLog.xlsx
+++ b/Reports/EnvEveLog.xlsx
@@ -579,10 +579,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>47.54223047222055</v>
+        <v>48.28256968706272</v>
       </c>
       <c r="G2" t="n">
-        <v>44.53193051558074</v>
+        <v>45.27226973042292</v>
       </c>
       <c r="H2" t="n">
         <v>1e-30</v>
@@ -591,28 +591,28 @@
         <v>2925.172973150331</v>
       </c>
       <c r="J2" t="n">
-        <v>46.82093326295253</v>
+        <v>47.5612724777947</v>
       </c>
       <c r="K2" t="n">
         <v>187.8778416538028</v>
       </c>
       <c r="L2" t="n">
-        <v>1.082064662563559</v>
+        <v>1.154909257789952</v>
       </c>
       <c r="M2" t="n">
-        <v>157.5479917579363</v>
+        <v>-149.4838752617311</v>
       </c>
       <c r="N2" t="n">
-        <v>16.82093326295253</v>
+        <v>17.5612724777947</v>
       </c>
       <c r="O2" t="n">
         <v>30</v>
       </c>
       <c r="P2" t="n">
-        <v>-141.0569083908502</v>
+        <v>-140.316569176008</v>
       </c>
       <c r="Q2" t="n">
-        <v>-141.0569083908502</v>
+        <v>-140.316569176008</v>
       </c>
       <c r="R2" t="n">
         <v>3964.814485118334</v>
@@ -636,7 +636,7 @@
         <v>7.53563738904006</v>
       </c>
       <c r="Y2" t="n">
-        <v>163.9731205251298</v>
+        <v>164.9731205251298</v>
       </c>
       <c r="Z2" t="n">
         <v>1.055284896272219</v>
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>48.30316969076519</v>
+        <v>48.42652921601626</v>
       </c>
       <c r="G3" t="n">
-        <v>45.29286973412538</v>
+        <v>45.41622925937645</v>
       </c>
       <c r="H3" t="n">
         <v>1e-30</v>
@@ -673,28 +673,28 @@
         <v>2918.3103020424</v>
       </c>
       <c r="J3" t="n">
-        <v>47.56147080377735</v>
+        <v>47.68483032902843</v>
       </c>
       <c r="K3" t="n">
         <v>187.857439976083</v>
       </c>
       <c r="L3" t="n">
-        <v>1.084897493908163</v>
+        <v>1.156137948742218</v>
       </c>
       <c r="M3" t="n">
-        <v>157.5351863568948</v>
+        <v>-149.5962631333745</v>
       </c>
       <c r="N3" t="n">
-        <v>17.56147080377735</v>
+        <v>17.68483032902843</v>
       </c>
       <c r="O3" t="n">
         <v>30</v>
       </c>
       <c r="P3" t="n">
-        <v>-140.2959691723056</v>
+        <v>-140.1726096470545</v>
       </c>
       <c r="Q3" t="n">
-        <v>-140.2959691723056</v>
+        <v>-140.1726096470545</v>
       </c>
       <c r="R3" t="n">
         <v>3971.024802073922</v>
@@ -718,10 +718,10 @@
         <v>7.535648199654293</v>
       </c>
       <c r="Y3" t="n">
-        <v>163.951872253482</v>
+        <v>164.951872253482</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.11916110502662</v>
+        <v>1.119161105026607</v>
       </c>
     </row>
     <row r="4">
@@ -743,10 +743,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>48.85477880728143</v>
+        <v>48.5394846242223</v>
       </c>
       <c r="G4" t="n">
-        <v>45.84447885064162</v>
+        <v>45.52918466758248</v>
       </c>
       <c r="H4" t="n">
         <v>1e-30</v>
@@ -755,28 +755,28 @@
         <v>2911.447771944785</v>
       </c>
       <c r="J4" t="n">
-        <v>48.09263063034305</v>
+        <v>47.77733644728391</v>
       </c>
       <c r="K4" t="n">
         <v>187.8369906861324</v>
       </c>
       <c r="L4" t="n">
-        <v>1.087750651386353</v>
+        <v>1.157380873373423</v>
       </c>
       <c r="M4" t="n">
-        <v>157.522428017705</v>
+        <v>-149.7092416202459</v>
       </c>
       <c r="N4" t="n">
-        <v>18.09263063034305</v>
+        <v>17.77733644728391</v>
       </c>
       <c r="O4" t="n">
         <v>30</v>
       </c>
       <c r="P4" t="n">
-        <v>-139.7443600557893</v>
+        <v>-140.0596542388485</v>
       </c>
       <c r="Q4" t="n">
-        <v>-139.7443600557893</v>
+        <v>-140.0596542388485</v>
       </c>
       <c r="R4" t="n">
         <v>3977.230532691764</v>
@@ -800,7 +800,7 @@
         <v>7.535659022502847</v>
       </c>
       <c r="Y4" t="n">
-        <v>163.9305370533707</v>
+        <v>164.9305370533707</v>
       </c>
       <c r="Z4" t="n">
         <v>1.183197228970331</v>
@@ -825,10 +825,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>49.21931807021644</v>
+        <v>48.62112595952223</v>
       </c>
       <c r="G5" t="n">
-        <v>46.20901811357663</v>
+        <v>45.61082600288242</v>
       </c>
       <c r="H5" t="n">
         <v>1e-30</v>
@@ -837,28 +837,28 @@
         <v>2904.585393382574</v>
       </c>
       <c r="J5" t="n">
-        <v>48.43667279884535</v>
+        <v>47.83848068815115</v>
       </c>
       <c r="K5" t="n">
         <v>187.8164935916997</v>
       </c>
       <c r="L5" t="n">
-        <v>1.090624324669255</v>
+        <v>1.158638219836315</v>
       </c>
       <c r="M5" t="n">
-        <v>157.5097174537487</v>
+        <v>-149.8228125165609</v>
       </c>
       <c r="N5" t="n">
-        <v>18.43667279884535</v>
+        <v>17.83848068815115</v>
       </c>
       <c r="O5" t="n">
         <v>30</v>
       </c>
       <c r="P5" t="n">
-        <v>-139.3798207928544</v>
+        <v>-139.9780129035485</v>
       </c>
       <c r="Q5" t="n">
-        <v>-139.3798207928544</v>
+        <v>-139.9780129035485</v>
       </c>
       <c r="R5" t="n">
         <v>3983.431669203378</v>
@@ -882,7 +882,7 @@
         <v>7.535669857550016</v>
       </c>
       <c r="Y5" t="n">
-        <v>163.9091141611784</v>
+        <v>164.9091141611784</v>
       </c>
       <c r="Z5" t="n">
         <v>1.247394412869355</v>
@@ -907,10 +907,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>49.40899309673646</v>
+        <v>48.67090385748054</v>
       </c>
       <c r="G6" t="n">
-        <v>46.39869314009665</v>
+        <v>45.66060390084073</v>
       </c>
       <c r="H6" t="n">
         <v>1e-30</v>
@@ -919,28 +919,28 @@
         <v>2897.72317588242</v>
       </c>
       <c r="J6" t="n">
-        <v>48.60580272992379</v>
+        <v>47.86771349066787</v>
       </c>
       <c r="K6" t="n">
         <v>187.7959484962581</v>
       </c>
       <c r="L6" t="n">
-        <v>1.093518679686076</v>
+        <v>1.159910256304858</v>
       </c>
       <c r="M6" t="n">
-        <v>157.4970615399377</v>
+        <v>-149.9369730445895</v>
       </c>
       <c r="N6" t="n">
-        <v>18.60580272992379</v>
+        <v>17.86771349066787</v>
       </c>
       <c r="O6" t="n">
         <v>30</v>
       </c>
       <c r="P6" t="n">
-        <v>-139.1901457663343</v>
+        <v>-139.9282350055902</v>
       </c>
       <c r="Q6" t="n">
-        <v>-139.1901457663343</v>
+        <v>-139.9282350055902</v>
       </c>
       <c r="R6" t="n">
         <v>3989.628204424113</v>
@@ -964,10 +964,10 @@
         <v>7.535680704760108</v>
       </c>
       <c r="Y6" t="n">
-        <v>163.8876029772208</v>
+        <v>164.8876029772208</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.311753843689576</v>
+        <v>1.311753843689601</v>
       </c>
     </row>
     <row r="7">
@@ -989,10 +989,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>49.42828516210476</v>
+        <v>48.68801086525132</v>
       </c>
       <c r="G7" t="n">
-        <v>46.41798520546495</v>
+        <v>45.67771090861151</v>
       </c>
       <c r="H7" t="n">
         <v>1e-30</v>
@@ -1001,28 +1001,28 @@
         <v>2890.861130146279</v>
       </c>
       <c r="J7" t="n">
-        <v>48.60450150452391</v>
+        <v>47.86422720767047</v>
       </c>
       <c r="K7" t="n">
         <v>187.7753552054899</v>
       </c>
       <c r="L7" t="n">
-        <v>1.096433910287685</v>
+        <v>1.161197176607411</v>
       </c>
       <c r="M7" t="n">
-        <v>157.4844610276462</v>
+        <v>-150.0517248873528</v>
       </c>
       <c r="N7" t="n">
-        <v>18.60450150452391</v>
+        <v>17.86422720767047</v>
       </c>
       <c r="O7" t="n">
         <v>30</v>
       </c>
       <c r="P7" t="n">
-        <v>-139.170853700966</v>
+        <v>-139.9111279978195</v>
       </c>
       <c r="Q7" t="n">
-        <v>-139.170853700966</v>
+        <v>-139.9111279978195</v>
       </c>
       <c r="R7" t="n">
         <v>3995.820130571773</v>
@@ -1046,7 +1046,7 @@
         <v>7.535691564097316</v>
       </c>
       <c r="Y7" t="n">
-        <v>163.8660027232646</v>
+        <v>164.8660027232646</v>
       </c>
       <c r="Z7" t="n">
         <v>1.376276688121171</v>
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>49.27479638867542</v>
+        <v>48.67137204201632</v>
       </c>
       <c r="G8" t="n">
-        <v>46.26449643203561</v>
+        <v>45.66107208537651</v>
       </c>
       <c r="H8" t="n">
         <v>1e-30</v>
@@ -1083,28 +1083,28 @@
         <v>2883.99926371206</v>
       </c>
       <c r="J8" t="n">
-        <v>48.43037103985215</v>
+        <v>47.82694669319304</v>
       </c>
       <c r="K8" t="n">
         <v>187.7547135142475</v>
       </c>
       <c r="L8" t="n">
-        <v>1.099370235910558</v>
+        <v>1.162499108762441</v>
       </c>
       <c r="M8" t="n">
-        <v>157.4719112340601</v>
+        <v>-150.1670737507406</v>
       </c>
       <c r="N8" t="n">
-        <v>18.43037103985215</v>
+        <v>17.82694669319305</v>
       </c>
       <c r="O8" t="n">
         <v>30</v>
       </c>
       <c r="P8" t="n">
-        <v>-139.3243424743954</v>
+        <v>-139.9277668210545</v>
       </c>
       <c r="Q8" t="n">
-        <v>-139.3243424743954</v>
+        <v>-139.9277668210545</v>
       </c>
       <c r="R8" t="n">
         <v>4002.007441609711</v>
@@ -1128,10 +1128,10 @@
         <v>7.535702435525813</v>
       </c>
       <c r="Y8" t="n">
-        <v>163.844312670568</v>
+        <v>164.844312670568</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.440964134184441</v>
+        <v>1.440964134184429</v>
       </c>
     </row>
     <row r="9">
@@ -1153,10 +1153,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>48.93895494492234</v>
+        <v>48.61961674577355</v>
       </c>
       <c r="G9" t="n">
-        <v>45.92865498828253</v>
+        <v>45.60931678913374</v>
       </c>
       <c r="H9" t="n">
         <v>1e-30</v>
@@ -1165,28 +1165,28 @@
         <v>2877.137587391191</v>
       </c>
       <c r="J9" t="n">
-        <v>48.07383930771423</v>
+        <v>47.75450110856544</v>
       </c>
       <c r="K9" t="n">
         <v>187.7340232258627</v>
       </c>
       <c r="L9" t="n">
-        <v>1.102327855218203</v>
+        <v>1.163816251673528</v>
       </c>
       <c r="M9" t="n">
-        <v>157.4594129107516</v>
+        <v>-150.2830213071709</v>
       </c>
       <c r="N9" t="n">
-        <v>18.07383930771424</v>
+        <v>17.75450110856544</v>
       </c>
       <c r="O9" t="n">
         <v>30</v>
       </c>
       <c r="P9" t="n">
-        <v>-139.6601839181484</v>
+        <v>-139.9795221172972</v>
       </c>
       <c r="Q9" t="n">
-        <v>-139.6601839181484</v>
+        <v>-139.9795221172972</v>
       </c>
       <c r="R9" t="n">
         <v>4008.190129797132</v>
@@ -1210,7 +1210,7 @@
         <v>7.535713319009808</v>
       </c>
       <c r="Y9" t="n">
-        <v>163.8225320244808</v>
+        <v>164.8225320244808</v>
       </c>
       <c r="Z9" t="n">
         <v>1.505817370914526</v>
@@ -1235,10 +1235,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>48.40247651526845</v>
+        <v>48.53102666283046</v>
       </c>
       <c r="G10" t="n">
-        <v>45.39217655862864</v>
+        <v>45.52072670619064</v>
       </c>
       <c r="H10" t="n">
         <v>1e-30</v>
@@ -1247,28 +1247,28 @@
         <v>2870.276112097037</v>
       </c>
       <c r="J10" t="n">
-        <v>47.51662179485197</v>
+        <v>47.64517194241397</v>
       </c>
       <c r="K10" t="n">
         <v>187.7132841426543</v>
       </c>
       <c r="L10" t="n">
-        <v>1.105306930137825</v>
+        <v>1.165148920056785</v>
       </c>
       <c r="M10" t="n">
-        <v>157.4469758157683</v>
+        <v>-150.3995624440689</v>
       </c>
       <c r="N10" t="n">
-        <v>17.51662179485197</v>
+        <v>17.64517194241397</v>
       </c>
       <c r="O10" t="n">
         <v>30</v>
       </c>
       <c r="P10" t="n">
-        <v>-140.1966623478023</v>
+        <v>-140.0681122002403</v>
       </c>
       <c r="Q10" t="n">
-        <v>-140.1966623478023</v>
+        <v>-140.0681122002403</v>
       </c>
       <c r="R10" t="n">
         <v>4014.36818737927</v>
@@ -1292,7 +1292,7 @@
         <v>7.535724214513424</v>
       </c>
       <c r="Y10" t="n">
-        <v>163.8006601567133</v>
+        <v>164.8006601567133</v>
       </c>
       <c r="Z10" t="n">
         <v>1.570837630214003</v>
@@ -1317,10 +1317,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>47.63493091076374</v>
+        <v>48.40350864141762</v>
       </c>
       <c r="G11" t="n">
-        <v>44.62463095412392</v>
+        <v>45.3932086847778</v>
       </c>
       <c r="H11" t="n">
         <v>1e-30</v>
@@ -1329,28 +1329,28 @@
         <v>2863.414845575346</v>
       </c>
       <c r="J11" t="n">
-        <v>46.72828810369529</v>
+        <v>47.49686583434917</v>
       </c>
       <c r="K11" t="n">
         <v>187.6924960560023</v>
       </c>
       <c r="L11" t="n">
-        <v>1.108307700015986</v>
+        <v>1.166497212243613</v>
       </c>
       <c r="M11" t="n">
-        <v>157.4345922858724</v>
+        <v>-150.5167050417432</v>
       </c>
       <c r="N11" t="n">
-        <v>16.72828810369529</v>
+        <v>17.49686583434917</v>
       </c>
       <c r="O11" t="n">
         <v>30</v>
       </c>
       <c r="P11" t="n">
-        <v>-140.964207952307</v>
+        <v>-140.1956302216532</v>
       </c>
       <c r="Q11" t="n">
-        <v>-140.964207952307</v>
+        <v>-140.1956302216532</v>
       </c>
       <c r="R11" t="n">
         <v>4020.541608337709</v>
@@ -1374,10 +1374,10 @@
         <v>7.535735122000748</v>
       </c>
       <c r="Y11" t="n">
-        <v>163.778696257454</v>
+        <v>164.778696257454</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.636026123521763</v>
+        <v>1.636026123521776</v>
       </c>
     </row>
     <row r="12">
@@ -1399,10 +1399,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>46.58690259753228</v>
+        <v>48.23450557908203</v>
       </c>
       <c r="G12" t="n">
-        <v>43.57660264089247</v>
+        <v>45.22420562244222</v>
       </c>
       <c r="H12" t="n">
         <v>1e-30</v>
@@ -1411,28 +1411,28 @@
         <v>2856.553798894191</v>
       </c>
       <c r="J12" t="n">
-        <v>45.65942250041584</v>
+        <v>47.3070254819656</v>
       </c>
       <c r="K12" t="n">
         <v>187.6716587659544</v>
       </c>
       <c r="L12" t="n">
-        <v>1.111330370797694</v>
+        <v>1.167861335735925</v>
       </c>
       <c r="M12" t="n">
-        <v>157.4222631025538</v>
+        <v>-150.6344506793617</v>
       </c>
       <c r="N12" t="n">
-        <v>15.65942250041584</v>
+        <v>17.3070254819656</v>
       </c>
       <c r="O12" t="n">
         <v>30</v>
       </c>
       <c r="P12" t="n">
-        <v>-142.0122362655385</v>
+        <v>-140.3646332839888</v>
       </c>
       <c r="Q12" t="n">
-        <v>-142.0122362655385</v>
+        <v>-140.3646332839888</v>
       </c>
       <c r="R12" t="n">
         <v>4026.710384922465</v>
@@ -1456,7 +1456,7 @@
         <v>7.535746041435837</v>
       </c>
       <c r="Y12" t="n">
-        <v>163.75663950775</v>
+        <v>164.75663950775</v>
       </c>
       <c r="Z12" t="n">
         <v>1.70138407432339</v>
@@ -1481,10 +1481,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>45.17572685151413</v>
+        <v>48.02089266946246</v>
       </c>
       <c r="G13" t="n">
-        <v>42.16542689487432</v>
+        <v>45.01059271282265</v>
       </c>
       <c r="H13" t="n">
         <v>1e-30</v>
@@ -1493,28 +1493,28 @@
         <v>2849.69298209137</v>
       </c>
       <c r="J13" t="n">
-        <v>44.22736005651052</v>
+        <v>47.07252587445885</v>
       </c>
       <c r="K13" t="n">
         <v>187.6507720680672</v>
       </c>
       <c r="L13" t="n">
-        <v>1.114375122855263</v>
+        <v>1.169241578377575</v>
       </c>
       <c r="M13" t="n">
-        <v>157.4099952557694</v>
+        <v>-150.7527961725172</v>
       </c>
       <c r="N13" t="n">
-        <v>14.22736005651052</v>
+        <v>17.07252587445886</v>
       </c>
       <c r="O13" t="n">
         <v>30</v>
       </c>
       <c r="P13" t="n">
-        <v>-143.4234120115567</v>
+        <v>-140.5782461936083</v>
       </c>
       <c r="Q13" t="n">
-        <v>-143.4234120115567</v>
+        <v>-140.5782461936083</v>
       </c>
       <c r="R13" t="n">
         <v>4032.874509990546</v>
@@ -1538,10 +1538,10 @@
         <v>7.535756972782754</v>
       </c>
       <c r="Y13" t="n">
-        <v>163.7344892568628</v>
+        <v>164.7344892568628</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.766912749526267</v>
+        <v>1.76691274952628</v>
       </c>
     </row>
     <row r="14">
@@ -1563,10 +1563,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>43.25248558558114</v>
+        <v>47.75887217675156</v>
       </c>
       <c r="G14" t="n">
-        <v>40.24218562894133</v>
+        <v>44.74857222011175</v>
       </c>
       <c r="H14" t="n">
         <v>1e-30</v>
@@ -1575,28 +1575,28 @@
         <v>2842.83240638419</v>
       </c>
       <c r="J14" t="n">
-        <v>42.283182482619</v>
+        <v>46.78956907378942</v>
       </c>
       <c r="K14" t="n">
         <v>187.6298357601086</v>
       </c>
       <c r="L14" t="n">
-        <v>1.117442165797901</v>
+        <v>1.170638153276563</v>
       </c>
       <c r="M14" t="n">
-        <v>157.3977895653996</v>
+        <v>-150.8717429382813</v>
       </c>
       <c r="N14" t="n">
-        <v>12.28318248261901</v>
+        <v>16.78956907378943</v>
       </c>
       <c r="O14" t="n">
         <v>30</v>
       </c>
       <c r="P14" t="n">
-        <v>-145.3466532774897</v>
+        <v>-140.8402666863192</v>
       </c>
       <c r="Q14" t="n">
-        <v>-145.3466532774897</v>
+        <v>-140.8402666863192</v>
       </c>
       <c r="R14" t="n">
         <v>4039.03397581495</v>
@@ -1620,10 +1620,10 @@
         <v>7.535767916005519</v>
       </c>
       <c r="Y14" t="n">
-        <v>163.7122446700199</v>
+        <v>164.7122446700199</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.832613395866888</v>
+        <v>1.832613395866875</v>
       </c>
     </row>
     <row r="15">
@@ -1645,10 +1645,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>40.51121002605002</v>
+        <v>47.44381157907376</v>
       </c>
       <c r="G15" t="n">
-        <v>37.5009100694102</v>
+        <v>44.43351162243395</v>
       </c>
       <c r="H15" t="n">
         <v>1e-30</v>
@@ -1657,28 +1657,28 @@
         <v>2835.972079826671</v>
       </c>
       <c r="J15" t="n">
-        <v>39.52092079176672</v>
+        <v>46.45352234479047</v>
       </c>
       <c r="K15" t="n">
         <v>187.6088496287875</v>
       </c>
       <c r="L15" t="n">
-        <v>1.120531736829488</v>
+        <v>1.172051208015542</v>
       </c>
       <c r="M15" t="n">
-        <v>157.3856413793383</v>
+        <v>-150.9912965722239</v>
       </c>
       <c r="N15" t="n">
-        <v>9.520920791766724</v>
+        <v>16.45352234479047</v>
       </c>
       <c r="O15" t="n">
         <v>30</v>
       </c>
       <c r="P15" t="n">
-        <v>-148.0879288370208</v>
+        <v>-141.155327283997</v>
       </c>
       <c r="Q15" t="n">
-        <v>-148.0879288370208</v>
+        <v>-141.155327283997</v>
       </c>
       <c r="R15" t="n">
         <v>4045.188776384386</v>
@@ -1702,10 +1702,10 @@
         <v>7.535778871068056</v>
       </c>
       <c r="Y15" t="n">
-        <v>163.6899049626078</v>
+        <v>164.6899049626078</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.8984872830552</v>
+        <v>1.898487283055213</v>
       </c>
     </row>
     <row r="16">
@@ -1727,10 +1727,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>36.15100117448441</v>
+        <v>47.06997936805196</v>
       </c>
       <c r="G16" t="n">
-        <v>33.14070121784459</v>
+        <v>44.05967941141215</v>
       </c>
       <c r="H16" t="n">
         <v>1e-30</v>
@@ -1739,28 +1739,28 @@
         <v>2829.112013780766</v>
       </c>
       <c r="J16" t="n">
-        <v>35.13967578090498</v>
+        <v>46.05865397447254</v>
       </c>
       <c r="K16" t="n">
         <v>187.5878134694914</v>
       </c>
       <c r="L16" t="n">
-        <v>1.123644050869024</v>
+        <v>1.173480961376502</v>
       </c>
       <c r="M16" t="n">
-        <v>157.3735515197613</v>
+        <v>-151.1114584696585</v>
       </c>
       <c r="N16" t="n">
-        <v>5.139675780904984</v>
+        <v>16.05865397447254</v>
       </c>
       <c r="O16" t="n">
         <v>30</v>
       </c>
       <c r="P16" t="n">
-        <v>-152.4481376885864</v>
+        <v>-141.5291594950188</v>
       </c>
       <c r="Q16" t="n">
-        <v>-152.4481376885864</v>
+        <v>-141.5291594950188</v>
       </c>
       <c r="R16" t="n">
         <v>4051.338903992383</v>
@@ -1784,10 +1784,10 @@
         <v>7.53578983793435</v>
       </c>
       <c r="Y16" t="n">
-        <v>163.6674692819926</v>
+        <v>164.6674692819926</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.964535681859003</v>
+        <v>1.964535681859015</v>
       </c>
     </row>
     <row r="17">
@@ -1809,10 +1809,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>26.33567140190044</v>
+        <v>46.63018328114912</v>
       </c>
       <c r="G17" t="n">
-        <v>23.32537144526063</v>
+        <v>43.6198833245093</v>
       </c>
       <c r="H17" t="n">
         <v>1e-30</v>
@@ -1821,28 +1821,28 @@
         <v>2822.252219716514</v>
       </c>
       <c r="J17" t="n">
-        <v>25.30325961537828</v>
+        <v>45.59777149462695</v>
       </c>
       <c r="K17" t="n">
         <v>187.5667270765487</v>
       </c>
       <c r="L17" t="n">
-        <v>1.126779284793705</v>
+        <v>1.174927749139475</v>
       </c>
       <c r="M17" t="n">
-        <v>157.3615298817034</v>
+        <v>-151.232223019358</v>
       </c>
       <c r="N17" t="n">
-        <v>-4.696740384621717</v>
+        <v>15.59777149462695</v>
       </c>
       <c r="O17" t="n">
         <v>30</v>
       </c>
       <c r="P17" t="n">
-        <v>-162.2634674611703</v>
+        <v>-141.9689555819217</v>
       </c>
       <c r="Q17" t="n">
-        <v>-162.2634674611703</v>
+        <v>-141.9689555819217</v>
       </c>
       <c r="R17" t="n">
         <v>4057.484350918837</v>
@@ -1866,10 +1866,10 @@
         <v>7.535800816568286</v>
       </c>
       <c r="Y17" t="n">
-        <v>163.6449369459386</v>
+        <v>164.6449369459386</v>
       </c>
       <c r="Z17" t="n">
-        <v>2.030759907970641</v>
+        <v>2.030759907970616</v>
       </c>
     </row>
     <row r="18">
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>27.37066818327738</v>
+        <v>46.11539262101832</v>
       </c>
       <c r="G18" t="n">
-        <v>24.36036822663757</v>
+        <v>43.10509266437851</v>
       </c>
       <c r="H18" t="n">
         <v>1e-30</v>
@@ -1903,28 +1903,28 @@
         <v>2815.392705892127</v>
       </c>
       <c r="J18" t="n">
-        <v>26.31711955318395</v>
+        <v>45.06184399092489</v>
       </c>
       <c r="K18" t="n">
         <v>187.5455902329773</v>
       </c>
       <c r="L18" t="n">
-        <v>1.129937696688128</v>
+        <v>1.176391689615344</v>
       </c>
       <c r="M18" t="n">
-        <v>157.3495688137949</v>
+        <v>-151.3535980331108</v>
       </c>
       <c r="N18" t="n">
-        <v>-3.682880446816053</v>
+        <v>15.0618439909249</v>
       </c>
       <c r="O18" t="n">
         <v>30</v>
       </c>
       <c r="P18" t="n">
-        <v>-161.2284706797934</v>
+        <v>-142.4837462420525</v>
       </c>
       <c r="Q18" t="n">
-        <v>-161.2284706797934</v>
+        <v>-142.4837462420525</v>
       </c>
       <c r="R18" t="n">
         <v>4063.625111191426</v>
@@ -1948,10 +1948,10 @@
         <v>7.535811806933767</v>
       </c>
       <c r="Y18" t="n">
-        <v>163.6223070849084</v>
+        <v>164.6223070849084</v>
       </c>
       <c r="Z18" t="n">
-        <v>2.097161257011621</v>
+        <v>2.097161257011583</v>
       </c>
     </row>
     <row r="19">
@@ -1973,10 +1973,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>36.53329287772444</v>
+        <v>45.51393602263047</v>
       </c>
       <c r="G19" t="n">
-        <v>33.52299292108463</v>
+        <v>42.50363606599066</v>
       </c>
       <c r="H19" t="n">
         <v>1e-30</v>
@@ -1985,28 +1985,28 @@
         <v>2808.533483950788</v>
       </c>
       <c r="J19" t="n">
-        <v>35.45855674540703</v>
+        <v>44.43919989031307</v>
       </c>
       <c r="K19" t="n">
         <v>187.5244027307534</v>
       </c>
       <c r="L19" t="n">
-        <v>1.133119509609639</v>
+        <v>1.177873011135992</v>
       </c>
       <c r="M19" t="n">
-        <v>157.337669170247</v>
+        <v>-151.475584797462</v>
       </c>
       <c r="N19" t="n">
-        <v>5.458556745407028</v>
+        <v>14.43919989031307</v>
       </c>
       <c r="O19" t="n">
         <v>30</v>
       </c>
       <c r="P19" t="n">
-        <v>-152.0658459853464</v>
+        <v>-143.0852028404403</v>
       </c>
       <c r="Q19" t="n">
-        <v>-152.0658459853464</v>
+        <v>-143.0852028404403</v>
       </c>
       <c r="R19" t="n">
         <v>4069.761177089858</v>
@@ -2030,10 +2030,10 @@
         <v>7.535822808994611</v>
       </c>
       <c r="Y19" t="n">
-        <v>163.5995788196273</v>
+        <v>164.5995788196273</v>
       </c>
       <c r="Z19" t="n">
-        <v>2.163741037189362</v>
+        <v>2.16374103718935</v>
       </c>
     </row>
     <row r="20">
@@ -2055,10 +2055,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>40.78082818163804</v>
+        <v>44.81040128858833</v>
       </c>
       <c r="G20" t="n">
-        <v>37.77052822499824</v>
+        <v>41.80010133194852</v>
       </c>
       <c r="H20" t="n">
         <v>1e-30</v>
@@ -2067,28 +2067,28 @@
         <v>2801.674564497573</v>
       </c>
       <c r="J20" t="n">
-        <v>39.68485367577899</v>
+        <v>43.71442678272928</v>
       </c>
       <c r="K20" t="n">
         <v>187.5031643572117</v>
       </c>
       <c r="L20" t="n">
-        <v>1.136324919984267</v>
+        <v>1.179372023127835</v>
       </c>
       <c r="M20" t="n">
-        <v>157.3258380596666</v>
+        <v>-151.598179671018</v>
       </c>
       <c r="N20" t="n">
-        <v>9.684853675778992</v>
+        <v>13.71442678272927</v>
       </c>
       <c r="O20" t="n">
         <v>30</v>
       </c>
       <c r="P20" t="n">
-        <v>-147.8183106814327</v>
+        <v>-143.7887375744824</v>
       </c>
       <c r="Q20" t="n">
-        <v>-147.8183106814327</v>
+        <v>-143.7887375744824</v>
       </c>
       <c r="R20" t="n">
         <v>4075.89254150259</v>
@@ -2112,10 +2112,10 @@
         <v>7.535833822714661</v>
       </c>
       <c r="Y20" t="n">
-        <v>163.5767514431665</v>
+        <v>164.5767514431665</v>
       </c>
       <c r="Z20" t="n">
-        <v>2.230500602020816</v>
+        <v>2.230500602020829</v>
       </c>
     </row>
     <row r="21">
@@ -2137,10 +2137,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>43.47940772206555</v>
+        <v>43.98396609538463</v>
       </c>
       <c r="G21" t="n">
-        <v>40.46910776542573</v>
+        <v>40.97366613874482</v>
       </c>
       <c r="H21" t="n">
         <v>1e-30</v>
@@ -2149,28 +2149,28 @@
         <v>2794.815959315634</v>
       </c>
       <c r="J21" t="n">
-        <v>42.36214376087653</v>
+        <v>42.86670213419562</v>
       </c>
       <c r="K21" t="n">
         <v>187.4818749018818</v>
       </c>
       <c r="L21" t="n">
-        <v>1.139554155466925</v>
+        <v>1.180888960356702</v>
       </c>
       <c r="M21" t="n">
-        <v>157.314076374624</v>
+        <v>-151.7213837809292</v>
       </c>
       <c r="N21" t="n">
-        <v>12.36214376087653</v>
+        <v>12.86670213419562</v>
       </c>
       <c r="O21" t="n">
         <v>30</v>
       </c>
       <c r="P21" t="n">
-        <v>-145.1197311410052</v>
+        <v>-144.6151727676861</v>
       </c>
       <c r="Q21" t="n">
-        <v>-145.1197311410052</v>
+        <v>-144.6151727676861</v>
       </c>
       <c r="R21" t="n">
         <v>4082.019196753073</v>
@@ -2194,10 +2194,10 @@
         <v>7.535844848057712</v>
       </c>
       <c r="Y21" t="n">
-        <v>163.5538240585597</v>
+        <v>164.5538240585597</v>
       </c>
       <c r="Z21" t="n">
-        <v>2.297441285608205</v>
+        <v>2.297441285608218</v>
       </c>
     </row>
     <row r="22">
@@ -2219,10 +2219,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>45.37469020776651</v>
+        <v>43.00552353582104</v>
       </c>
       <c r="G22" t="n">
-        <v>42.36439025112669</v>
+        <v>39.99522357918123</v>
       </c>
       <c r="H22" t="n">
         <v>1e-30</v>
@@ -2231,28 +2231,28 @@
         <v>2787.957677020446</v>
       </c>
       <c r="J22" t="n">
-        <v>44.23608548767525</v>
+        <v>41.86691881572978</v>
       </c>
       <c r="K22" t="n">
         <v>187.4605341429796</v>
       </c>
       <c r="L22" t="n">
-        <v>1.142807471706345</v>
+        <v>1.182423991447942</v>
       </c>
       <c r="M22" t="n">
-        <v>157.3023795019968</v>
+        <v>-151.8452025245903</v>
       </c>
       <c r="N22" t="n">
-        <v>14.23608548767525</v>
+        <v>11.86691881572978</v>
       </c>
       <c r="O22" t="n">
         <v>30</v>
       </c>
       <c r="P22" t="n">
-        <v>-143.2244486553043</v>
+        <v>-145.5936153272498</v>
       </c>
       <c r="Q22" t="n">
-        <v>-143.2244486553043</v>
+        <v>-145.5936153272498</v>
       </c>
       <c r="R22" t="n">
         <v>4088.141136855705</v>
@@ -2276,10 +2276,10 @@
         <v>7.535855884987495</v>
       </c>
       <c r="Y22" t="n">
-        <v>163.5307958202829</v>
+        <v>164.5307958202829</v>
       </c>
       <c r="Z22" t="n">
-        <v>2.364564445292857</v>
+        <v>2.364564445292896</v>
       </c>
     </row>
     <row r="23">
@@ -2301,10 +2301,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>46.75464924637926</v>
+        <v>41.83246654017373</v>
       </c>
       <c r="G23" t="n">
-        <v>43.74434928973945</v>
+        <v>38.82216658353392</v>
       </c>
       <c r="H23" t="n">
         <v>1e-30</v>
@@ -2313,28 +2313,28 @@
         <v>2781.099729570777</v>
       </c>
       <c r="J23" t="n">
-        <v>45.5946522509162</v>
+        <v>40.67246954471067</v>
       </c>
       <c r="K23" t="n">
         <v>187.4391418676077</v>
       </c>
       <c r="L23" t="n">
-        <v>1.146085102212184</v>
+        <v>1.183977357516207</v>
       </c>
       <c r="M23" t="n">
-        <v>157.2907483404074</v>
+        <v>-151.9696369935887</v>
       </c>
       <c r="N23" t="n">
-        <v>15.59465225091619</v>
+        <v>10.67246954471067</v>
       </c>
       <c r="O23" t="n">
         <v>30</v>
       </c>
       <c r="P23" t="n">
-        <v>-141.8444896166915</v>
+        <v>-146.7666723228971</v>
       </c>
       <c r="Q23" t="n">
-        <v>-141.8444896166915</v>
+        <v>-146.7666723228971</v>
       </c>
       <c r="R23" t="n">
         <v>4094.258354138889</v>
@@ -2358,7 +2358,7 @@
         <v>7.535866933467747</v>
       </c>
       <c r="Y23" t="n">
-        <v>163.5076658118871</v>
+        <v>164.5076658118871</v>
       </c>
       <c r="Z23" t="n">
         <v>2.431871441127968</v>
@@ -2383,10 +2383,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>47.75832373920274</v>
+        <v>40.39873128022811</v>
       </c>
       <c r="G24" t="n">
-        <v>44.74802378256293</v>
+        <v>37.38843132358829</v>
       </c>
       <c r="H24" t="n">
         <v>1e-30</v>
@@ -2395,28 +2395,28 @@
         <v>2774.242129006447</v>
       </c>
       <c r="J24" t="n">
-        <v>46.57688273778849</v>
+        <v>39.21729027881386</v>
       </c>
       <c r="K24" t="n">
         <v>187.4176978616566</v>
       </c>
       <c r="L24" t="n">
-        <v>1.149387239871286</v>
+        <v>1.185549416955846</v>
       </c>
       <c r="M24" t="n">
-        <v>157.2791929223854</v>
+        <v>-152.0946810013168</v>
       </c>
       <c r="N24" t="n">
-        <v>16.57688273778849</v>
+        <v>9.217290278813861</v>
       </c>
       <c r="O24" t="n">
         <v>30</v>
       </c>
       <c r="P24" t="n">
-        <v>-140.8408151238681</v>
+        <v>-148.2004075828427</v>
       </c>
       <c r="Q24" t="n">
-        <v>-140.8408151238681</v>
+        <v>-148.2004075828427</v>
       </c>
       <c r="R24" t="n">
         <v>4100.370840948545</v>
@@ -2440,7 +2440,7 @@
         <v>7.535877993462202</v>
       </c>
       <c r="Y24" t="n">
-        <v>163.4844332917572</v>
+        <v>164.4844332917572</v>
       </c>
       <c r="Z24" t="n">
         <v>2.499363679460075</v>
@@ -2465,10 +2465,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>48.46058160268193</v>
+        <v>38.59404828879218</v>
       </c>
       <c r="G25" t="n">
-        <v>45.45028164604211</v>
+        <v>35.58374833215237</v>
       </c>
       <c r="H25" t="n">
         <v>1e-30</v>
@@ -2477,28 +2477,28 @@
         <v>2767.384884207488</v>
       </c>
       <c r="J25" t="n">
-        <v>47.25764463923252</v>
+        <v>37.39111132534277</v>
       </c>
       <c r="K25" t="n">
         <v>187.3962018996214</v>
       </c>
       <c r="L25" t="n">
-        <v>1.152714163694703</v>
+        <v>1.187140310542884</v>
       </c>
       <c r="M25" t="n">
-        <v>157.2677056181326</v>
+        <v>-152.2203422558704</v>
       </c>
       <c r="N25" t="n">
-        <v>17.25764463923252</v>
+        <v>7.391111325342766</v>
       </c>
       <c r="O25" t="n">
         <v>30</v>
       </c>
       <c r="P25" t="n">
-        <v>-140.1385572603889</v>
+        <v>-150.0050905742786</v>
       </c>
       <c r="Q25" t="n">
-        <v>-140.1385572603889</v>
+        <v>-150.0050905742786</v>
       </c>
       <c r="R25" t="n">
         <v>4106.478591302091</v>
@@ -2522,7 +2522,7 @@
         <v>7.535889064934467</v>
       </c>
       <c r="Y25" t="n">
-        <v>163.46109732498</v>
+        <v>164.46109732498</v>
       </c>
       <c r="Z25" t="n">
         <v>2.567042547016642</v>
@@ -2547,10 +2547,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>48.90297928069855</v>
+        <v>36.21179632846653</v>
       </c>
       <c r="G26" t="n">
-        <v>45.89267932405873</v>
+        <v>33.20149637182671</v>
       </c>
       <c r="H26" t="n">
         <v>1e-30</v>
@@ -2559,28 +2559,28 @@
         <v>2760.528007384252</v>
       </c>
       <c r="J26" t="n">
-        <v>47.67849418251469</v>
+        <v>34.98731123028267</v>
       </c>
       <c r="K26" t="n">
         <v>187.3746537648869</v>
       </c>
       <c r="L26" t="n">
-        <v>1.156066115016399</v>
+        <v>1.188750289191088</v>
       </c>
       <c r="M26" t="n">
-        <v>157.256287360568</v>
+        <v>-152.3466216753879</v>
       </c>
       <c r="N26" t="n">
-        <v>17.67849418251469</v>
+        <v>4.98731123028267</v>
       </c>
       <c r="O26" t="n">
         <v>30</v>
       </c>
       <c r="P26" t="n">
-        <v>-139.6961595823722</v>
+        <v>-152.3873425346043</v>
       </c>
       <c r="Q26" t="n">
-        <v>-139.6961595823722</v>
+        <v>-152.3873425346043</v>
       </c>
       <c r="R26" t="n">
         <v>4112.581597560728</v>
@@ -2604,10 +2604,10 @@
         <v>7.535900147848222</v>
       </c>
       <c r="Y26" t="n">
-        <v>163.4376569660906</v>
+        <v>164.4376569660906</v>
       </c>
       <c r="Z26" t="n">
-        <v>2.634909443945255</v>
+        <v>2.63490944394523</v>
       </c>
     </row>
   </sheetData>
